--- a/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
+++ b/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
@@ -1,28 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt-Analysis-Scripts\REopt Julia Package Scripts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11670B-11E2-4FBB-91E0-B7FB16C16489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="23" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="resultsA_0" r:id="rId4" sheetId="2"/>
-    <sheet name="resultsB_0" r:id="rId6" sheetId="3"/>
-    <sheet name="resultsC_0" r:id="rId7" sheetId="4"/>
+    <sheet name="resultsA_0" sheetId="2" r:id="rId1"/>
+    <sheet name="resultsB_0" sheetId="3" r:id="rId2"/>
+    <sheet name="resultsC_0" sheetId="4" r:id="rId3"/>
+    <sheet name="resultsA_1" sheetId="5" r:id="rId4"/>
+    <sheet name="resultsB_1" sheetId="6" r:id="rId5"/>
+    <sheet name="resultsC_1" sheetId="7" r:id="rId6"/>
+    <sheet name="resultsA_2" sheetId="8" r:id="rId7"/>
+    <sheet name="resultsA_3" sheetId="9" r:id="rId8"/>
+    <sheet name="resultsA_4" sheetId="10" r:id="rId9"/>
+    <sheet name="resultsB_2" sheetId="11" r:id="rId10"/>
+    <sheet name="resultsC_2" sheetId="12" r:id="rId11"/>
+    <sheet name="resultsA_5" sheetId="13" r:id="rId12"/>
+    <sheet name="resultsB_3" sheetId="14" r:id="rId13"/>
+    <sheet name="resultsC_3" sheetId="15" r:id="rId14"/>
+    <sheet name="resultsA_6" sheetId="16" r:id="rId15"/>
+    <sheet name="resultsA_7" sheetId="17" r:id="rId16"/>
+    <sheet name="resultsA_8" sheetId="18" r:id="rId17"/>
+    <sheet name="resultsA_9" sheetId="19" r:id="rId18"/>
+    <sheet name="resultsA_10" sheetId="20" r:id="rId19"/>
+    <sheet name="resultsA_12" sheetId="21" r:id="rId20"/>
+    <sheet name="resultsB_4" sheetId="23" r:id="rId21"/>
+    <sheet name="resultsB_5" sheetId="28" r:id="rId22"/>
+    <sheet name="resultsB_6" sheetId="30" r:id="rId23"/>
+    <sheet name="resultsB_7" sheetId="32" r:id="rId24"/>
+    <sheet name="resultsB_8" sheetId="34" r:id="rId25"/>
+    <sheet name="Task2.PartA" sheetId="22" r:id="rId26"/>
+    <sheet name="Task2.PartB" sheetId="26" r:id="rId27"/>
+    <sheet name="Task2.PartC" sheetId="37" r:id="rId28"/>
+    <sheet name="resultsA_11" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="69">
   <si>
     <t>City</t>
   </si>
@@ -59,12 +101,195 @@
   <si>
     <t>npv</t>
   </si>
+  <si>
+    <t>BAU_Total_Annual_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>BAU_LifeCycle_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>Breakeven_Cost_of_Emissions_Reduction</t>
+  </si>
+  <si>
+    <t>PV_size_kW</t>
+  </si>
+  <si>
+    <t>PV_Production_kWh</t>
+  </si>
+  <si>
+    <t>Battery_size_kWh</t>
+  </si>
+  <si>
+    <t>Total_Annual_Emissions_tonnes_CO2</t>
+  </si>
+  <si>
+    <t>LifeCycle_Emissions_tonnes_CO2</t>
+  </si>
+  <si>
+    <t>NG_LifeCycle_Emissions_tonnes_CO2</t>
+  </si>
+  <si>
+    <t>NG_Annual_Consumption_MMBtu</t>
+  </si>
+  <si>
+    <t>Electric_Heater_kWh_consumption_annual</t>
+  </si>
+  <si>
+    <t>Electric_Load_kWh_annual</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_Supplied_kWh_annual</t>
+  </si>
+  <si>
+    <t>Electric_Heater_Thermal_Production_MMBtu_annual</t>
+  </si>
+  <si>
+    <t>ElecUtility_Annual_Emissions_CO2</t>
+  </si>
+  <si>
+    <t>Annual_Total_HeatingLoad_MMBtu</t>
+  </si>
+  <si>
+    <t>Annual_Boiler_Fuel_HeatingLoad_MMBtu</t>
+  </si>
+  <si>
+    <t>Existing_Boiler_Fuel_Consump_MMBtu</t>
+  </si>
+  <si>
+    <t>Existing_Boiler_Thermal_Prod_MMBtu</t>
+  </si>
+  <si>
+    <t>BAU_Existing_Boiler_Fuel_Consump_MMBtu</t>
+  </si>
+  <si>
+    <t>BAU_Existing_Boiler_Thermal_Prod_MMBtu</t>
+  </si>
+  <si>
+    <t>kWh - PV kWh Production =</t>
+  </si>
+  <si>
+    <t>&lt;- converted Electric Heater kWh</t>
+  </si>
+  <si>
+    <t>consumption into MMBtu</t>
+  </si>
+  <si>
+    <t>Matches column G</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>changed min=0.01</t>
+  </si>
+  <si>
+    <t>removed max</t>
+  </si>
+  <si>
+    <t>Also removed the max input variable from the JSON file</t>
+  </si>
+  <si>
+    <t>changed max=0.23</t>
+  </si>
+  <si>
+    <t>Also removed retire_in_optimal=false entirely from the JSON file as an input variable.</t>
+  </si>
+  <si>
+    <t>changed min=0.06</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>changed max=0.10</t>
+  </si>
+  <si>
+    <t>Electric Heater Annual Consumption (kWh)</t>
+  </si>
+  <si>
+    <t>Annual Grid-Supplied Electricity (kWh)</t>
+  </si>
+  <si>
+    <t>Electric Heater Annual Thermal Production (MMBtu)</t>
+  </si>
+  <si>
+    <t>Total Annual Heating Load (MMBtu)</t>
+  </si>
+  <si>
+    <t>Existing Boiler Annual Fuel Heating Load (MMBtu)</t>
+  </si>
+  <si>
+    <t>BAU Existing Boiler Fuel Consumption (MMBtu)</t>
+  </si>
+  <si>
+    <t>BAU Existing Boiler Thermal Production (MMBtu)</t>
+  </si>
+  <si>
+    <t>Total Annual Emissions CO2</t>
+  </si>
+  <si>
+    <t>Electric Utility Annual Emissions CO2</t>
+  </si>
+  <si>
+    <t>BAU Total Annual Emissions CO2</t>
+  </si>
+  <si>
+    <t>LifeCycle Emissions CO2</t>
+  </si>
+  <si>
+    <t>BAU LifeCycle Emissions CO2</t>
+  </si>
+  <si>
+    <t>Natural Gas LifeCycle Emissions CO2</t>
+  </si>
+  <si>
+    <t>LifeCycle Emissions Reduction Fraction</t>
+  </si>
+  <si>
+    <t>Breakeven Cost of Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Net Present Value</t>
+  </si>
+  <si>
+    <t>Electric Heater A+B7:Q7nnual Consumption (kWh)</t>
+  </si>
+  <si>
+    <t>Natural Gas Annual Consumption (MMBtu)</t>
+  </si>
+  <si>
+    <t>Battery Size (kWh)</t>
+  </si>
+  <si>
+    <t>PV Production (kWh)</t>
+  </si>
+  <si>
+    <t>PV size (kW)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +298,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,15 +320,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,108 +646,5837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D8DAD-F8DA-4049-BDD4-9E95A2AA356E}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10532.22</v>
+      </c>
+      <c r="C2">
+        <v>226651.82</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7066.13</v>
+      </c>
+      <c r="C3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12000.68</v>
+      </c>
+      <c r="C4">
+        <v>258253.05</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5">
+        <v>153226.53</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB6FD3-6987-40B1-BFD3-E9AF25E4B236}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3067.76</v>
+      </c>
+      <c r="C2">
+        <v>3674072.16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2471.17</v>
+      </c>
+      <c r="F2">
+        <v>61778.39</v>
+      </c>
+      <c r="G2">
+        <v>61773.68</v>
+      </c>
+      <c r="H2">
+        <v>0.24</v>
+      </c>
+      <c r="I2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2846.35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3342974.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2474.69</v>
+      </c>
+      <c r="F3">
+        <v>61778.39</v>
+      </c>
+      <c r="G3">
+        <v>61228.46</v>
+      </c>
+      <c r="H3">
+        <v>0.24</v>
+      </c>
+      <c r="I3">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2671.48</v>
+      </c>
+      <c r="C4">
+        <v>3522433.37</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2471.12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="G4">
+        <v>61780.37</v>
+      </c>
+      <c r="H4">
+        <v>0.24</v>
+      </c>
+      <c r="I4">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2471.4299999999998</v>
+      </c>
+      <c r="C5">
+        <v>3520904.06</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2471.14</v>
+      </c>
+      <c r="F5">
+        <v>61778.39</v>
+      </c>
+      <c r="G5">
+        <v>61778.38</v>
+      </c>
+      <c r="H5">
+        <v>0.24</v>
+      </c>
+      <c r="I5">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCE439-8F9B-46D4-96D0-C7E65D725A28}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5971.42</v>
+      </c>
+      <c r="C2">
+        <v>7151612.6100000003</v>
+      </c>
+      <c r="D2">
+        <v>6268.35</v>
+      </c>
+      <c r="E2">
+        <v>1950.91</v>
+      </c>
+      <c r="F2">
+        <v>48772.42</v>
+      </c>
+      <c r="G2">
+        <v>48769.599999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>-8339592.2800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>9182.89</v>
+      </c>
+      <c r="C3">
+        <v>10997801.99</v>
+      </c>
+      <c r="D3">
+        <v>18729.080000000002</v>
+      </c>
+      <c r="E3">
+        <v>1300.6199999999999</v>
+      </c>
+      <c r="F3">
+        <v>32514.94</v>
+      </c>
+      <c r="G3">
+        <v>32512.02</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>-15742760.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>14311.35</v>
+      </c>
+      <c r="C4">
+        <v>17139848.82</v>
+      </c>
+      <c r="D4">
+        <v>29848.17</v>
+      </c>
+      <c r="E4">
+        <v>650.32000000000005</v>
+      </c>
+      <c r="F4">
+        <v>16257.47</v>
+      </c>
+      <c r="G4">
+        <v>16253.83</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>-27788443.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>37354.019999999997</v>
+      </c>
+      <c r="C5">
+        <v>44736675.18</v>
+      </c>
+      <c r="D5">
+        <v>121192.39</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>-86975102.640000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456C85A6-F23C-4767-8C95-09CEB66AE27E}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10532.22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3251.49</v>
+      </c>
+      <c r="D2" s="5">
+        <v>226651.82</v>
+      </c>
+      <c r="E2" s="5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7066.13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3251.49</v>
+      </c>
+      <c r="D3" s="5">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12000.68</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3251.49</v>
+      </c>
+      <c r="D4" s="5">
+        <v>258253.05</v>
+      </c>
+      <c r="E4" s="5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3251.49</v>
+      </c>
+      <c r="D5" s="5">
+        <v>153226.53</v>
+      </c>
+      <c r="E5" s="5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8906ACEC-52F1-46F0-A33E-DB54292BBD2A}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3067.76</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3674072.16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2471.17</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="G2" s="5">
+        <v>61773.68</v>
+      </c>
+      <c r="H2" s="5">
+        <v>46599.65</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2846.35</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3342974.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2474.69</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="G3" s="5">
+        <v>61228.46</v>
+      </c>
+      <c r="H3" s="5">
+        <v>46188.36</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2671.48</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3522433.37</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2471.12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>61780.37</v>
+      </c>
+      <c r="H4" s="5">
+        <v>46604.7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2471.4299999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3520904.06</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2471.14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="G5" s="5">
+        <v>61778.38</v>
+      </c>
+      <c r="H5" s="5">
+        <v>46603.199999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BE2E53-BB6C-4C2B-8B6A-F0787B138FDE}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5971.42</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7151612.6100000003</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6268.35</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1950.91</v>
+      </c>
+      <c r="F2" s="5">
+        <v>48772.42</v>
+      </c>
+      <c r="G2" s="5">
+        <v>48769.599999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>36789.89</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-8339592.2800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9182.89</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10997801.99</v>
+      </c>
+      <c r="D3" s="5">
+        <v>18729.080000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1300.6199999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>32514.94</v>
+      </c>
+      <c r="G3" s="5">
+        <v>32512.02</v>
+      </c>
+      <c r="H3" s="5">
+        <v>24525.8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-15742760.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14311.35</v>
+      </c>
+      <c r="C4" s="5">
+        <v>17139848.82</v>
+      </c>
+      <c r="D4" s="5">
+        <v>29848.17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>650.32000000000005</v>
+      </c>
+      <c r="F4" s="5">
+        <v>16257.47</v>
+      </c>
+      <c r="G4" s="5">
+        <v>16253.83</v>
+      </c>
+      <c r="H4" s="5">
+        <v>12261.25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-27788443.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>37354.019999999997</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44736675.18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>121192.39</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-86975102.640000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650DA29-7B4E-4DE9-8A79-665AE955E420}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="I2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="J2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="M2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="I3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="J3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="M3">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="H4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="I4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="J4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="M4">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="J5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="M5">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD410DD7-D6B2-4568-BBAE-F66A31813E2A}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="K2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="L2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="K3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="K4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="L4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="K5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="L5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC23619-95FF-4DA4-BD89-3C9DCCC3CB54}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792E3B8F-8488-41F6-A3F7-5E3001D4DDA2}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3304C09-35B5-4893-B79A-160D6813C976}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-1.79</v>
+      </c>
+      <c r="P2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-0.88</v>
+      </c>
+      <c r="P5">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06CEC1D-F378-446B-9C92-3A7539D959FC}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10532.22</v>
+        <v>3067.76</v>
       </c>
       <c r="C2">
-        <v>226651.82</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>2471.17</v>
       </c>
       <c r="E2">
-        <v>-1.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61778.39</v>
+      </c>
+      <c r="F2">
+        <v>61773.68</v>
+      </c>
+      <c r="G2">
+        <v>0.24</v>
+      </c>
+      <c r="H2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7066.13</v>
+        <v>2846.35</v>
       </c>
       <c r="C3">
-        <v>152062.14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>2474.69</v>
       </c>
       <c r="E3">
-        <v>-0.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>61778.39</v>
+      </c>
+      <c r="F3">
+        <v>61228.46</v>
+      </c>
+      <c r="G3">
+        <v>0.24</v>
+      </c>
+      <c r="H3">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>12000.68</v>
+        <v>2671.48</v>
       </c>
       <c r="C4">
-        <v>258253.05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>2471.12</v>
       </c>
       <c r="E4">
-        <v>-2.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="F4">
+        <v>61780.37</v>
+      </c>
+      <c r="G4">
+        <v>0.24</v>
+      </c>
+      <c r="H4">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
+        <v>2471.4299999999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2471.14</v>
+      </c>
+      <c r="E5">
+        <v>61778.39</v>
+      </c>
+      <c r="F5">
+        <v>61778.38</v>
+      </c>
+      <c r="G5">
+        <v>0.24</v>
+      </c>
+      <c r="H5">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ACF362-4420-47CC-81DF-7996F1649433}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14522116</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>226651.81</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.34</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14522116</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>152062.13</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.34</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14522116</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>258253.03</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.34</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14522116</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
         <v>7120.24</v>
       </c>
+      <c r="J5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>153226.51999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.34</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14046369-96A6-4BA3-A703-1641F26333CA}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3068</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3674072</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3486148</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5492</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11776</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>46600</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2471.17</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>61773.68</v>
+      </c>
+      <c r="S2" s="2">
+        <v>222.9684</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2846</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3342974</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3583551</v>
+      </c>
+      <c r="F3" s="6">
+        <v>294593</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12105</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>46188</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2474.69</v>
+      </c>
+      <c r="N3" s="8">
+        <v>25.55</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>61228.46</v>
+      </c>
+      <c r="S3" s="2">
+        <v>186.86619999999999</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2671</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3522433</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3484951</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5335</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11772</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>46605</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2471.12</v>
+      </c>
+      <c r="N4" s="8">
+        <v>-0.09</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>61780.37</v>
+      </c>
+      <c r="S4" s="2">
+        <v>206.8552</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2471</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3520904</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3485307</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>11773</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>46603</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2471.14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>61778.38</v>
+      </c>
+      <c r="S5" s="2">
+        <v>157.5718</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD74E2-C251-4587-AE29-1AF5B974D794}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3232</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3871065</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3602275</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5164</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12169</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>46109</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2445.15</v>
+      </c>
+      <c r="N2">
+        <v>0.21</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>61128.1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>61123.66</v>
+      </c>
+      <c r="S2" s="2">
+        <v>228.08279999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2898368.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2966</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3483849</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3709998</v>
+      </c>
+      <c r="F3" s="6">
+        <v>312757</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12532</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>45654</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2449.0500000000002</v>
+      </c>
+      <c r="N3">
+        <v>28.23</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>60520.68</v>
+      </c>
+      <c r="S3" s="2">
+        <v>189.0616</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-2400831.2799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2787</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3675183</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3601155</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4932</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12165</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>46114</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2445.11</v>
+      </c>
+      <c r="N4">
+        <v>-0.08</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>61128.1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>61129.93</v>
+      </c>
+      <c r="S4" s="2">
+        <v>208.83799999999999</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2653831.7799999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2575</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3669146</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3601484</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>12166</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>46113</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2445.12</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="S5" s="2">
+        <v>159.12389999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-2022109.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326AC5D7-C0C0-4D40-9B24-DD8C831E61F9}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3232</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3871065</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3602275</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5164</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12169</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>46109</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2445.15</v>
+      </c>
+      <c r="N2">
+        <v>0.21</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>61128.1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>61123.66</v>
+      </c>
+      <c r="S2" s="2">
+        <v>228.08279999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2898368.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2966</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3483849</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3709998</v>
+      </c>
+      <c r="F3" s="6">
+        <v>312757</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12532</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>45654</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2449.0500000000002</v>
+      </c>
+      <c r="N3">
+        <v>28.23</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>60520.68</v>
+      </c>
+      <c r="S3" s="2">
+        <v>189.0616</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-2400831.2799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2787</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3675183</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3601155</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4932</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12165</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>46114</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2445.11</v>
+      </c>
+      <c r="N4">
+        <v>-0.08</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>61128.1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>61129.93</v>
+      </c>
+      <c r="S4" s="2">
+        <v>208.83799999999999</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2653831.7799999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2575</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3669146</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3601484</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>12166</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>46113</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2445.12</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>61128.09</v>
+      </c>
+      <c r="S5" s="2">
+        <v>159.12389999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-2022109.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E649695-D326-429C-BFF0-A7D11AABCF74}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2540</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3042038</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3021644</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6819</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10207</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>48561</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2575.2199999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.27</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>64373.73</v>
+      </c>
+      <c r="S2" s="2">
+        <v>212.30549999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2262751.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2506</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2942754</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3045632</v>
+      </c>
+      <c r="F3" s="6">
+        <v>108751</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10288</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>48460</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2576.09</v>
+      </c>
+      <c r="N3">
+        <v>6.51</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>64239.46</v>
+      </c>
+      <c r="S3" s="2">
+        <v>183.5986</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1956426.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2291</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3020129</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3020209</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5852</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10202</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>48567</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2575.17</v>
+      </c>
+      <c r="N4">
+        <v>-0.1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>64381.760000000002</v>
+      </c>
+      <c r="S4" s="2">
+        <v>205.3048</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2188156.2599999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2123</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3024217</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3020599</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10204</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>48565</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2575.1799999999998</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>64379.58</v>
+      </c>
+      <c r="S5" s="2">
+        <v>156.3511</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-1666408.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4074B42D-6C83-4F91-95FF-774B95991ADE}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2540</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3042038</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3021644</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6819</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10207</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>48561</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2575.2199999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.27</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>64373.73</v>
+      </c>
+      <c r="S2" s="2">
+        <v>212.30549999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2262751.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2506</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2942754</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3045632</v>
+      </c>
+      <c r="F3" s="6">
+        <v>108751</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10288</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>48460</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2576.09</v>
+      </c>
+      <c r="N3">
+        <v>6.51</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>64239.46</v>
+      </c>
+      <c r="S3" s="2">
+        <v>183.5986</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1956426.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2291</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3020129</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3020209</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5852</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10202</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>48567</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2575.17</v>
+      </c>
+      <c r="N4">
+        <v>-0.1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>64381.760000000002</v>
+      </c>
+      <c r="S4" s="2">
+        <v>205.3048</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2188156.2599999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2123</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3024217</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3020599</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10204</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>48565</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2575.1799999999998</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>64379.59</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>64379.58</v>
+      </c>
+      <c r="S5" s="2">
+        <v>156.3511</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-1666408.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECA3C32-DF56-4289-A426-342B6D931157}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10532.22</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>226651.82</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-6274160.2400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7066.13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-6588757.2300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12000.68</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>258253.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-6013617.0599999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14522117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="E5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7120.24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>153226.53</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-157.66419999999999</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-7504886.7199999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52197F96-67E8-4EB0-B281-FCD4B17D4E9B}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3068</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3674072</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3486148</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5492</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11776</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>46600</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2471.17</v>
+      </c>
+      <c r="N2">
+        <v>0.22</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>61773.68</v>
+      </c>
+      <c r="S2" s="2">
+        <v>222.9684</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2846</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3342974</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3583551</v>
+      </c>
+      <c r="F3" s="6">
+        <v>294593</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12105</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>46188</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2474.69</v>
+      </c>
+      <c r="N3">
+        <v>25.55</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3" s="6">
+        <v>61228.46</v>
+      </c>
+      <c r="S3" s="2">
+        <v>186.86619999999999</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2671</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3522433</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3484951</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5335</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11772</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>46605</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2471.12</v>
+      </c>
+      <c r="N4">
+        <v>-0.09</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>61780.37</v>
+      </c>
+      <c r="S4" s="2">
+        <v>206.8552</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2471</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3520904</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3485307</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>11773</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5" s="6">
+        <v>46603</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2471.14</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>61778.39</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5" s="6">
+        <v>61778.38</v>
+      </c>
+      <c r="S5" s="2">
+        <v>157.5718</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10">
+        <f>E2-C2</f>
+        <v>-187924</v>
+      </c>
+      <c r="G7" s="10">
+        <f>$E2/1000 * 3.412 * 0.99</f>
+        <v>11775.78960624</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E8" s="10">
+        <f t="shared" ref="E8:E10" si="0">E3-C3</f>
+        <v>240577</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" ref="G8:G10" si="1">$E3/1000 * 3.412 * 0.99</f>
+        <v>12104.80525188</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>-37482</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>11771.74628388</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>-35597</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>11772.948809159998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48604EE7-9ACD-4EA7-80AF-90D37934F1DA}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5971</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7151613</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6268</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5809347</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3276</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19624</v>
+      </c>
+      <c r="H2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L2" s="6">
+        <v>36790</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1950.91</v>
+      </c>
+      <c r="N2">
+        <v>0.13</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>48772.42</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>48769.599999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>406.88139999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-8339592.2800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9183</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10997802</v>
+      </c>
+      <c r="D3" s="6">
+        <v>18729</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8713792</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3406</v>
+      </c>
+      <c r="G3" s="6">
+        <v>29435</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L3" s="6">
+        <v>24526</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1300.6199999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>32514.94</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R3" s="6">
+        <v>32512.02</v>
+      </c>
+      <c r="S3" s="2">
+        <v>512.0521</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-15742760.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14311</v>
+      </c>
+      <c r="C4" s="6">
+        <v>17139849</v>
+      </c>
+      <c r="D4" s="6">
+        <v>29848</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11618345</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4245</v>
+      </c>
+      <c r="G4" s="6">
+        <v>39247</v>
+      </c>
+      <c r="H4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L4" s="6">
+        <v>12261</v>
+      </c>
+      <c r="M4" s="6">
+        <v>650.32000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>16257.47</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>16253.83</v>
+      </c>
+      <c r="S4" s="2">
+        <v>677.88710000000003</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-27788443.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>37354</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44736675</v>
+      </c>
+      <c r="D5" s="6">
+        <v>121192</v>
+      </c>
+      <c r="E5" s="6">
+        <v>14522118</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="H5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>49056</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1697.375</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-86975102.640000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>14522118</v>
+      </c>
+      <c r="C2">
+        <v>14522117</v>
+      </c>
+      <c r="D2">
+        <v>49056</v>
+      </c>
+      <c r="E2">
+        <v>49056</v>
+      </c>
+      <c r="F2">
+        <v>61320</v>
+      </c>
+      <c r="G2">
+        <v>61320</v>
+      </c>
+      <c r="H2">
+        <v>49056</v>
+      </c>
+      <c r="I2">
+        <v>10532.22</v>
+      </c>
+      <c r="J2">
+        <v>10532.22</v>
+      </c>
+      <c r="K2">
+        <v>3251.49</v>
+      </c>
+      <c r="L2">
+        <v>226651.82</v>
+      </c>
+      <c r="M2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-1.79</v>
+      </c>
+      <c r="P2">
+        <v>-66.068299999999994</v>
+      </c>
+      <c r="Q2">
+        <v>-6274160.2400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>14522118</v>
+      </c>
+      <c r="C3">
+        <v>14522117</v>
+      </c>
+      <c r="D3">
+        <v>49056</v>
+      </c>
+      <c r="E3">
+        <v>49056</v>
+      </c>
+      <c r="F3">
+        <v>61320</v>
+      </c>
+      <c r="G3">
+        <v>61320</v>
+      </c>
+      <c r="H3">
+        <v>49056</v>
+      </c>
+      <c r="I3">
+        <v>7066.13</v>
+      </c>
+      <c r="J3">
+        <v>7066.13</v>
+      </c>
+      <c r="K3">
+        <v>3251.49</v>
+      </c>
+      <c r="L3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="M3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-0.87</v>
+      </c>
+      <c r="P3">
+        <v>-140.63720000000001</v>
+      </c>
+      <c r="Q3">
+        <v>-6588757.2300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>14522118</v>
+      </c>
+      <c r="C4">
+        <v>14522117</v>
+      </c>
+      <c r="D4">
+        <v>49056</v>
+      </c>
+      <c r="E4">
+        <v>49056</v>
+      </c>
+      <c r="F4">
+        <v>61320</v>
+      </c>
+      <c r="G4">
+        <v>61320</v>
+      </c>
+      <c r="H4">
+        <v>49056</v>
+      </c>
+      <c r="I4">
+        <v>12000.68</v>
+      </c>
+      <c r="J4">
+        <v>12000.68</v>
+      </c>
+      <c r="K4">
+        <v>3251.49</v>
+      </c>
+      <c r="L4">
+        <v>258253.05</v>
+      </c>
+      <c r="M4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>-52.133899999999997</v>
+      </c>
+      <c r="Q4">
+        <v>-6013617.0599999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>14522118</v>
+      </c>
       <c r="C5">
+        <v>14522117</v>
+      </c>
+      <c r="D5">
+        <v>49056</v>
+      </c>
+      <c r="E5">
+        <v>49056</v>
+      </c>
+      <c r="F5">
+        <v>61320</v>
+      </c>
+      <c r="G5">
+        <v>61320</v>
+      </c>
+      <c r="H5">
+        <v>49056</v>
+      </c>
+      <c r="I5">
+        <v>7120.24</v>
+      </c>
+      <c r="J5">
+        <v>7120.24</v>
+      </c>
+      <c r="K5">
+        <v>3251.49</v>
+      </c>
+      <c r="L5">
         <v>153226.53</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
+      <c r="M5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>-0.88</v>
+      </c>
+      <c r="P5">
+        <v>-157.66419999999999</v>
+      </c>
+      <c r="Q5">
+        <v>-7504886.7199999997</v>
       </c>
     </row>
   </sheetData>
@@ -484,14 +6485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C4736-3D75-4B93-9A82-A147035D0674}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,108 +6518,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3067.76</v>
+        <v>5971.42</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>6268.35</v>
       </c>
       <c r="D2">
-        <v>2471.17</v>
+        <v>1950.91</v>
       </c>
       <c r="E2">
-        <v>61778.39</v>
+        <v>48772.42</v>
       </c>
       <c r="F2">
-        <v>61773.68</v>
+        <v>48769.599999999999</v>
       </c>
       <c r="G2">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>-2.7419866e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-8339592.2800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2846.35</v>
+        <v>9182.89</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>18729.080000000002</v>
       </c>
       <c r="D3">
-        <v>2474.69</v>
+        <v>1300.6199999999999</v>
       </c>
       <c r="E3">
-        <v>61778.39</v>
+        <v>32514.94</v>
       </c>
       <c r="F3">
-        <v>61228.46</v>
+        <v>32512.02</v>
       </c>
       <c r="G3">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="H3">
-        <v>-2.29653578e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-15742760.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2671.48</v>
+        <v>14311.35</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>29848.17</v>
       </c>
       <c r="D4">
-        <v>2471.12</v>
+        <v>650.32000000000005</v>
       </c>
       <c r="E4">
-        <v>61778.4</v>
+        <v>16257.47</v>
       </c>
       <c r="F4">
-        <v>61780.37</v>
+        <v>16253.83</v>
       </c>
       <c r="G4">
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
-        <v>-2.54387548e6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-27788443.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2471.43</v>
+        <v>37354.019999999997</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>121192.39</v>
       </c>
       <c r="D5">
-        <v>2471.14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>61778.39</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>61778.38</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>-1.93777189e6</v>
+        <v>-86975102.640000001</v>
       </c>
     </row>
   </sheetData>
@@ -627,14 +6628,120 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE92C99-763D-4266-A92E-E8FFFC9475FE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10532.22</v>
+      </c>
+      <c r="C2">
+        <v>226651.82</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7066.13</v>
+      </c>
+      <c r="C3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12000.68</v>
+      </c>
+      <c r="C4">
+        <v>258253.05</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5">
+        <v>153226.53</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7766F6-4451-4959-B235-348E84E5D72B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,11 +6767,160 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>3067.76</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2471.17</v>
+      </c>
+      <c r="E2">
+        <v>61778.39</v>
+      </c>
+      <c r="F2">
+        <v>61773.68</v>
+      </c>
+      <c r="G2">
+        <v>0.24</v>
+      </c>
+      <c r="H2">
+        <v>-2741986.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2846.35</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2474.69</v>
+      </c>
+      <c r="E3">
+        <v>61778.39</v>
+      </c>
+      <c r="F3">
+        <v>61228.46</v>
+      </c>
+      <c r="G3">
+        <v>0.24</v>
+      </c>
+      <c r="H3">
+        <v>-2296535.7799999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2671.48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2471.12</v>
+      </c>
+      <c r="E4">
+        <v>61778.400000000001</v>
+      </c>
+      <c r="F4">
+        <v>61780.37</v>
+      </c>
+      <c r="G4">
+        <v>0.24</v>
+      </c>
+      <c r="H4">
+        <v>-2543875.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2471.4299999999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2471.14</v>
+      </c>
+      <c r="E5">
+        <v>61778.39</v>
+      </c>
+      <c r="F5">
+        <v>61778.38</v>
+      </c>
+      <c r="G5">
+        <v>0.24</v>
+      </c>
+      <c r="H5">
+        <v>-1937771.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE35B8B5-B6EC-4D1E-B7BB-8A9DD849FFC8}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>5971.42</v>
       </c>
       <c r="C2">
@@ -677,16 +6933,16 @@
         <v>48772.42</v>
       </c>
       <c r="F2">
-        <v>48769.6</v>
+        <v>48769.599999999999</v>
       </c>
       <c r="G2">
         <v>0.4</v>
       </c>
-      <c r="H2">
-        <v>-8.33959228e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="2">
+        <v>-8339592.2800000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -694,10 +6950,10 @@
         <v>9182.89</v>
       </c>
       <c r="C3">
-        <v>18729.08</v>
+        <v>18729.080000000002</v>
       </c>
       <c r="D3">
-        <v>1300.62</v>
+        <v>1300.6199999999999</v>
       </c>
       <c r="E3">
         <v>32514.94</v>
@@ -708,11 +6964,11 @@
       <c r="G3">
         <v>0.6</v>
       </c>
-      <c r="H3">
-        <v>-1.574276009e7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="2">
+        <v>-15742760.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -723,7 +6979,7 @@
         <v>29848.17</v>
       </c>
       <c r="D4">
-        <v>650.32</v>
+        <v>650.32000000000005</v>
       </c>
       <c r="E4">
         <v>16257.47</v>
@@ -734,34 +6990,474 @@
       <c r="G4">
         <v>0.8</v>
       </c>
-      <c r="H4">
-        <v>-2.778844339e7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="2">
+        <v>-27788443.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37354.02</v>
+        <v>37354.019999999997</v>
       </c>
       <c r="C5">
         <v>121192.39</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-86975102.640000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F139C7D-7C91-42B0-896A-470227B3287A}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10532.22</v>
+      </c>
+      <c r="C2">
+        <v>3251.49</v>
+      </c>
+      <c r="D2">
+        <v>226651.82</v>
+      </c>
+      <c r="E2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-1.79</v>
+      </c>
+      <c r="H2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7066.13</v>
+      </c>
+      <c r="C3">
+        <v>3251.49</v>
+      </c>
+      <c r="D3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="E3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-0.87</v>
+      </c>
+      <c r="H3">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12000.68</v>
+      </c>
+      <c r="C4">
+        <v>3251.49</v>
+      </c>
+      <c r="D4">
+        <v>258253.05</v>
+      </c>
+      <c r="E4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H4">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5">
+        <v>3251.49</v>
+      </c>
+      <c r="D5">
+        <v>153226.53</v>
+      </c>
+      <c r="E5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-0.88</v>
       </c>
       <c r="H5">
-        <v>-8.697510264e7</v>
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB8AAE9-0D53-4706-B083-9238A8122934}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10532.22</v>
+      </c>
+      <c r="C2">
+        <v>3251.49</v>
+      </c>
+      <c r="D2">
+        <v>226651.82</v>
+      </c>
+      <c r="E2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-1.79</v>
+      </c>
+      <c r="H2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7066.13</v>
+      </c>
+      <c r="C3">
+        <v>3251.49</v>
+      </c>
+      <c r="D3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="E3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-0.87</v>
+      </c>
+      <c r="H3">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12000.68</v>
+      </c>
+      <c r="C4">
+        <v>3251.49</v>
+      </c>
+      <c r="D4">
+        <v>258253.05</v>
+      </c>
+      <c r="E4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H4">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5">
+        <v>3251.49</v>
+      </c>
+      <c r="D5">
+        <v>153226.53</v>
+      </c>
+      <c r="E5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-0.88</v>
+      </c>
+      <c r="H5">
+        <v>-157.66419999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C9C43-10BB-4347-ACE4-7D7A1E581318}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10532.22</v>
+      </c>
+      <c r="C2">
+        <v>3251.49</v>
+      </c>
+      <c r="D2">
+        <v>226651.82</v>
+      </c>
+      <c r="E2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-1.79</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-66.068299999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7066.13</v>
+      </c>
+      <c r="C3">
+        <v>3251.49</v>
+      </c>
+      <c r="D3">
+        <v>152062.14000000001</v>
+      </c>
+      <c r="E3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-140.63720000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12000.68</v>
+      </c>
+      <c r="C4">
+        <v>3251.49</v>
+      </c>
+      <c r="D4">
+        <v>258253.05</v>
+      </c>
+      <c r="E4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-52.133899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7120.24</v>
+      </c>
+      <c r="C5">
+        <v>3251.49</v>
+      </c>
+      <c r="D5">
+        <v>153226.53</v>
+      </c>
+      <c r="E5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.88</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-157.66419999999999</v>
       </c>
     </row>
   </sheetData>

--- a/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
+++ b/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt-Analysis-Scripts\REopt Julia Package Scripts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11670B-11E2-4FBB-91E0-B7FB16C16489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60FE43-A846-4CB8-A596-013167386A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="23" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="30" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultsA_0" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,15 @@
     <sheet name="Task2.PartB" sheetId="26" r:id="rId27"/>
     <sheet name="Task2.PartC" sheetId="37" r:id="rId28"/>
     <sheet name="resultsA_11" sheetId="38" r:id="rId29"/>
+    <sheet name="Task2.PartA(updated)" sheetId="39" r:id="rId30"/>
+    <sheet name="Task2.PartB(updated)" sheetId="40" r:id="rId31"/>
+    <sheet name="Task2.PartC(updated)" sheetId="41" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="42" r:id="rId33"/>
+    <sheet name="resultsA_13" sheetId="43" r:id="rId34"/>
+    <sheet name="resultsB_9" sheetId="44" r:id="rId35"/>
+    <sheet name="resultsC_4" sheetId="45" r:id="rId36"/>
+    <sheet name="resultsD_0" sheetId="46" r:id="rId37"/>
+    <sheet name="resultsE_0" sheetId="47" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="69">
   <si>
     <t>City</t>
   </si>
@@ -646,14 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D8DAD-F8DA-4049-BDD4-9E95A2AA356E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E5CC17-B141-44A5-BA2E-6CF70CEC85C0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +696,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +713,7 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -721,7 +730,7 @@
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -744,19 +753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB6FD3-6987-40B1-BFD3-E9AF25E4B236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0E04B3-1953-4A26-8F17-0C4F74FC320C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -814,7 +823,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -843,7 +852,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -872,7 +881,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -907,19 +916,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCE439-8F9B-46D4-96D0-C7E65D725A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A2F28E-D7EB-4C7B-A061-C45DB9F947F9}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -977,7 +986,7 @@
         <v>-8339592.2800000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>-15742760.09</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>-27788443.390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1070,24 +1079,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456C85A6-F23C-4767-8C95-09CEB66AE27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C74E42-CF8F-4833-B816-80FDE0EA2431}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1223,25 +1232,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8906ACEC-52F1-46F0-A33E-DB54292BBD2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46464B32-9966-41FB-B891-ED5257C75E68}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1407,23 +1416,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BE2E53-BB6C-4C2B-8B6A-F0787B138FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5C78A-01CA-4B1A-A0F8-6B716F0A9BD7}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>-8339592.2800000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>-15742760.09</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>-27788443.390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1589,26 +1598,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650DA29-7B4E-4DE9-8A79-665AE955E420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A4004C-0761-4D04-AA65-EA5FF4400B2B}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1819,29 +1828,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD410DD7-D6B2-4568-BBAE-F66A31813E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806DA9A-15FF-434D-8B79-9BA58FE538DA}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2082,28 +2091,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC23619-95FF-4DA4-BD89-3C9DCCC3CB54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46207520-09D9-44A5-B2F2-4FF0C7FF80FF}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2262,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2359,24 +2368,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792E3B8F-8488-41F6-A3F7-5E3001D4DDA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6911B4C3-E22E-4042-9189-7B2C95C5BAC1}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2632,22 +2641,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3304C09-35B5-4893-B79A-160D6813C976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C3CE0-0669-4314-AFC5-4EE715BD31CC}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2903,14 +2912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06CEC1D-F378-446B-9C92-3A7539D959FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59988D1F-F5F2-406F-9F49-E57316169A0B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3046,23 +3055,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ACF362-4420-47CC-81DF-7996F1649433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0464E7A-A67E-4AD3-B640-577834F3FB49}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3318,25 +3327,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14046369-96A6-4BA3-A703-1641F26333CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33F064F-3481-4806-B281-D47CE2E8773D}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +3475,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3667,26 +3676,26 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD74E2-C251-4587-AE29-1AF5B974D794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE02B12-06CC-4E2C-9B89-B262F460C272}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>-2898368.32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>-2400831.2799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>-2653831.7799999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>-2022109.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>47</v>
       </c>
@@ -4030,25 +4039,25 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326AC5D7-C0C0-4D40-9B24-DD8C831E61F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF42B19-CBA1-446B-83C7-7036DE7E6A96}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4178,7 +4187,7 @@
         <v>-2898368.32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>-2400831.2799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>-2653831.7799999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>-2022109.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -4392,25 +4401,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E649695-D326-429C-BFF0-A7D11AABCF74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A410E43-4032-47FE-A75C-D883ACAD4215}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>-2262751.19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>-1956426.15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>-2188156.2599999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>-1666408.9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -4757,25 +4766,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4074B42D-6C83-4F91-95FF-774B95991ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8483A42-A3E3-4D06-9FDA-6DB46AF57B01}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>-2262751.19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>-1956426.15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>-2188156.2599999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>-1666408.9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -5111,7 +5120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -5122,24 +5131,24 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECA3C32-DF56-4289-A426-342B6D931157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09709B2E-1F2B-4D92-845D-0EFB23A64E1C}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5245,7 +5254,7 @@
         <v>-6274160.2400000002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>-6588757.2300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>-6013617.0599999996</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5404,7 +5413,7 @@
         <v>-7504886.7199999997</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>64</v>
       </c>
@@ -5460,24 +5469,24 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52197F96-67E8-4EB0-B281-FCD4B17D4E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79911F1-691E-456C-A926-FA94D74694DF}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +5551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5672,7 +5681,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>-1937771.89</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -5818,7 +5827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8" s="10">
         <f t="shared" ref="E8:E10" si="0">E3-C3</f>
         <v>240577</v>
@@ -5831,7 +5840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>-37482</v>
@@ -5844,7 +5853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>-35597</v>
@@ -5860,23 +5869,23 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48604EE7-9ACD-4EA7-80AF-90D37934F1DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F823FD4-FBA8-4795-9EBE-F8B53B393B5B}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6006,7 +6015,7 @@
         <v>-8339592.2800000003</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6071,7 +6080,7 @@
         <v>-15742760.09</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6136,7 +6145,7 @@
         <v>-27788443.390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6207,14 +6216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D0CE07-9755-4158-8BA7-42B6A286D6A5}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>-6274160.2400000002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6382,7 @@
         <v>-6588757.2300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6426,7 +6435,7 @@
         <v>-6013617.0599999996</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6485,14 +6494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C4736-3D75-4B93-9A82-A147035D0674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F0D380-99E8-4AAF-B31E-87BD72B59A17}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6544,7 +6553,7 @@
         <v>-8339592.2800000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>-15742760.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6596,7 +6605,7 @@
         <v>-27788443.390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6620,6 +6629,2635 @@
       </c>
       <c r="H5">
         <v>-86975102.640000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D8DEE0-EF16-473D-BC77-801E00279EC5}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="C2" s="6">
+        <v>13614484</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="F2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I2" s="6">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="J2" s="6">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>212486.08</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1.61</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-65.965999999999994</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5661648.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13614484</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="F3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6624.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6624.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L3" s="6">
+        <v>142558.26</v>
+      </c>
+      <c r="M3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.75</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-143.76650000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-5853986.5099999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13614484</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="F4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I4" s="6">
+        <v>11250.64</v>
+      </c>
+      <c r="J4" s="6">
+        <v>11250.64</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>242112.23</v>
+      </c>
+      <c r="M4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.98</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-52.238799999999998</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-5481819.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="C5" s="6">
+        <v>13614484</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="F5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6675.22</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6675.22</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>143649.88</v>
+      </c>
+      <c r="M5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.77</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-163.7116</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-6781392.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A1629-0143-4A7A-8CD7-19FA617005BB}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8532</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10218393</v>
+      </c>
+      <c r="D2" s="6">
+        <v>18193</v>
+      </c>
+      <c r="E2" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5624132</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>60965.52</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1528.6206999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-18212119.960000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5317</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6245185</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7473</v>
+      </c>
+      <c r="E3" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8262935</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>60965.51</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>957.24980000000005</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-11404757.710000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8200</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10811776</v>
+      </c>
+      <c r="D4" s="6">
+        <v>19889</v>
+      </c>
+      <c r="E4" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4607425</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>60965.52</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1542.4716000000001</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-18377140.969999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5664</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8069281</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9967</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6963924</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2832.99</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5" s="6">
+        <v>60965.51</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1049.8194000000001</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-12507639.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB7D02C-3F76-4591-862E-785FB513EB34}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3071</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3677688</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3404304</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4761</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11500</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J2" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L2" s="6">
+        <v>45987</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2438.65</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P2" s="6">
+        <v>60965.52</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2" s="6">
+        <v>60961.43</v>
+      </c>
+      <c r="S2" s="2">
+        <v>210.85130000000001</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2701022.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7115</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8521096</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11514</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6807692</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3137</v>
+      </c>
+      <c r="G3" s="6">
+        <v>22997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J3" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K3" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L3" s="6">
+        <v>30658</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1625.76</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P3" s="6">
+        <v>40643.68</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R3" s="6">
+        <v>40640.980000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <v>420.29660000000001</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-10768134.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11644</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13945476</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25145</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10211400</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3730</v>
+      </c>
+      <c r="G4" s="6">
+        <v>34494</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J4" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L4" s="6">
+        <v>15328</v>
+      </c>
+      <c r="M4" s="6">
+        <v>812.89</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P4" s="6">
+        <v>20321.84</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>20318.63</v>
+      </c>
+      <c r="S4" s="2">
+        <v>591.48199999999997</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-22730981.510000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>35019</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41940634</v>
+      </c>
+      <c r="D5" s="6">
+        <v>113618</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="J5" s="6">
+        <v>61320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45990</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3251.49</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1586.3235999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-81284720.049999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58095AC6-462D-44BB-9085-4E6C0C8A4690}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F347DE27-2FC5-4E70-81B0-3FA9AF072673}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>13614485</v>
+      </c>
+      <c r="C2">
+        <v>13614484</v>
+      </c>
+      <c r="D2">
+        <v>45990</v>
+      </c>
+      <c r="E2">
+        <v>45990</v>
+      </c>
+      <c r="F2">
+        <v>61320</v>
+      </c>
+      <c r="G2">
+        <v>61320</v>
+      </c>
+      <c r="H2">
+        <v>45990</v>
+      </c>
+      <c r="I2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="J2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="K2">
+        <v>3251.49</v>
+      </c>
+      <c r="L2">
+        <v>212486.08</v>
+      </c>
+      <c r="M2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-1.61</v>
+      </c>
+      <c r="P2">
+        <v>-65.965999999999994</v>
+      </c>
+      <c r="Q2">
+        <v>-5661648.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>13614485</v>
+      </c>
+      <c r="C3">
+        <v>13614484</v>
+      </c>
+      <c r="D3">
+        <v>45990</v>
+      </c>
+      <c r="E3">
+        <v>45990</v>
+      </c>
+      <c r="F3">
+        <v>61320</v>
+      </c>
+      <c r="G3">
+        <v>61320</v>
+      </c>
+      <c r="H3">
+        <v>45990</v>
+      </c>
+      <c r="I3">
+        <v>6624.5</v>
+      </c>
+      <c r="J3">
+        <v>6624.5</v>
+      </c>
+      <c r="K3">
+        <v>3251.49</v>
+      </c>
+      <c r="L3">
+        <v>142558.26</v>
+      </c>
+      <c r="M3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-0.75</v>
+      </c>
+      <c r="P3">
+        <v>-143.76650000000001</v>
+      </c>
+      <c r="Q3">
+        <v>-5853986.5099999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13614485</v>
+      </c>
+      <c r="C4">
+        <v>13614484</v>
+      </c>
+      <c r="D4">
+        <v>45990</v>
+      </c>
+      <c r="E4">
+        <v>45990</v>
+      </c>
+      <c r="F4">
+        <v>61320</v>
+      </c>
+      <c r="G4">
+        <v>61320</v>
+      </c>
+      <c r="H4">
+        <v>45990</v>
+      </c>
+      <c r="I4">
+        <v>11250.64</v>
+      </c>
+      <c r="J4">
+        <v>11250.64</v>
+      </c>
+      <c r="K4">
+        <v>3251.49</v>
+      </c>
+      <c r="L4">
+        <v>242112.23</v>
+      </c>
+      <c r="M4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-1.98</v>
+      </c>
+      <c r="P4">
+        <v>-52.238799999999998</v>
+      </c>
+      <c r="Q4">
+        <v>-5481819.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>13614485</v>
+      </c>
+      <c r="C5">
+        <v>13614484</v>
+      </c>
+      <c r="D5">
+        <v>45990</v>
+      </c>
+      <c r="E5">
+        <v>45990</v>
+      </c>
+      <c r="F5">
+        <v>61320</v>
+      </c>
+      <c r="G5">
+        <v>61320</v>
+      </c>
+      <c r="H5">
+        <v>45990</v>
+      </c>
+      <c r="I5">
+        <v>6675.22</v>
+      </c>
+      <c r="J5">
+        <v>6675.22</v>
+      </c>
+      <c r="K5">
+        <v>3251.49</v>
+      </c>
+      <c r="L5">
+        <v>143649.88</v>
+      </c>
+      <c r="M5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-0.77</v>
+      </c>
+      <c r="P5">
+        <v>-163.7116</v>
+      </c>
+      <c r="Q5">
+        <v>-6781392.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE4750-2F69-4734-9754-85A94DAF32A1}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8986</v>
+      </c>
+      <c r="C2">
+        <v>10761435</v>
+      </c>
+      <c r="D2">
+        <v>19160</v>
+      </c>
+      <c r="E2">
+        <v>14338009</v>
+      </c>
+      <c r="F2">
+        <v>5923019</v>
+      </c>
+      <c r="G2">
+        <v>48434</v>
+      </c>
+      <c r="H2">
+        <v>48434</v>
+      </c>
+      <c r="I2">
+        <v>64579</v>
+      </c>
+      <c r="J2">
+        <v>64579</v>
+      </c>
+      <c r="K2">
+        <v>48434</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2983.54</v>
+      </c>
+      <c r="N2">
+        <v>2983.54</v>
+      </c>
+      <c r="O2">
+        <v>3424.29</v>
+      </c>
+      <c r="P2">
+        <v>64205.45</v>
+      </c>
+      <c r="Q2">
+        <v>85607.26</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1528.6038000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.25</v>
+      </c>
+      <c r="U2">
+        <v>-19179977.829999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5600</v>
+      </c>
+      <c r="C3">
+        <v>6577077</v>
+      </c>
+      <c r="D3">
+        <v>7871</v>
+      </c>
+      <c r="E3">
+        <v>14338009</v>
+      </c>
+      <c r="F3">
+        <v>8702057</v>
+      </c>
+      <c r="G3">
+        <v>48434</v>
+      </c>
+      <c r="H3">
+        <v>48434</v>
+      </c>
+      <c r="I3">
+        <v>64579</v>
+      </c>
+      <c r="J3">
+        <v>64579</v>
+      </c>
+      <c r="K3">
+        <v>48434</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2983.54</v>
+      </c>
+      <c r="N3">
+        <v>2983.54</v>
+      </c>
+      <c r="O3">
+        <v>3424.29</v>
+      </c>
+      <c r="P3">
+        <v>64205.440000000002</v>
+      </c>
+      <c r="Q3">
+        <v>85607.26</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>957.23929999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.25</v>
+      </c>
+      <c r="U3">
+        <v>-12010847.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8371</v>
+      </c>
+      <c r="C4">
+        <v>11036987</v>
+      </c>
+      <c r="D4">
+        <v>20304</v>
+      </c>
+      <c r="E4">
+        <v>13898073</v>
+      </c>
+      <c r="F4">
+        <v>4703399</v>
+      </c>
+      <c r="G4">
+        <v>46948</v>
+      </c>
+      <c r="H4">
+        <v>46948</v>
+      </c>
+      <c r="I4">
+        <v>62597</v>
+      </c>
+      <c r="J4">
+        <v>62597</v>
+      </c>
+      <c r="K4">
+        <v>46948</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2892</v>
+      </c>
+      <c r="N4">
+        <v>2892</v>
+      </c>
+      <c r="O4">
+        <v>3319.22</v>
+      </c>
+      <c r="P4">
+        <v>62235.44</v>
+      </c>
+      <c r="Q4">
+        <v>82980.59</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1542.4668999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.25</v>
+      </c>
+      <c r="U4">
+        <v>-18759940.350000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5831</v>
+      </c>
+      <c r="C5">
+        <v>8307281</v>
+      </c>
+      <c r="D5">
+        <v>10261</v>
+      </c>
+      <c r="E5">
+        <v>14016035</v>
+      </c>
+      <c r="F5">
+        <v>7169322</v>
+      </c>
+      <c r="G5">
+        <v>47346</v>
+      </c>
+      <c r="H5">
+        <v>47346</v>
+      </c>
+      <c r="I5">
+        <v>63129</v>
+      </c>
+      <c r="J5">
+        <v>63129</v>
+      </c>
+      <c r="K5">
+        <v>47346</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2916.55</v>
+      </c>
+      <c r="N5">
+        <v>2916.55</v>
+      </c>
+      <c r="O5">
+        <v>3347.4</v>
+      </c>
+      <c r="P5">
+        <v>62763.66</v>
+      </c>
+      <c r="Q5">
+        <v>83684.88</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1049.8236999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.25</v>
+      </c>
+      <c r="U5">
+        <v>-12876546.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D86512-FC94-4E8E-B295-0E56CBC11F30}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8532</v>
+      </c>
+      <c r="C2">
+        <v>10218393</v>
+      </c>
+      <c r="D2">
+        <v>18193</v>
+      </c>
+      <c r="E2">
+        <v>13614485</v>
+      </c>
+      <c r="F2">
+        <v>5624132</v>
+      </c>
+      <c r="G2">
+        <v>45990</v>
+      </c>
+      <c r="H2">
+        <v>45990</v>
+      </c>
+      <c r="I2">
+        <v>61320</v>
+      </c>
+      <c r="J2">
+        <v>61320</v>
+      </c>
+      <c r="K2">
+        <v>45990</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2832.99</v>
+      </c>
+      <c r="N2">
+        <v>2832.99</v>
+      </c>
+      <c r="O2">
+        <v>3251.49</v>
+      </c>
+      <c r="P2">
+        <v>60965.52</v>
+      </c>
+      <c r="Q2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1528.6206999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.25</v>
+      </c>
+      <c r="U2">
+        <v>-18212119.960000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10803</v>
+      </c>
+      <c r="C3">
+        <v>12937831</v>
+      </c>
+      <c r="D3">
+        <v>24272</v>
+      </c>
+      <c r="E3">
+        <v>13614485</v>
+      </c>
+      <c r="F3">
+        <v>3952540</v>
+      </c>
+      <c r="G3">
+        <v>45990</v>
+      </c>
+      <c r="H3">
+        <v>45990</v>
+      </c>
+      <c r="I3">
+        <v>61320</v>
+      </c>
+      <c r="J3">
+        <v>61320</v>
+      </c>
+      <c r="K3">
+        <v>45990</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1888.66</v>
+      </c>
+      <c r="N3">
+        <v>1888.66</v>
+      </c>
+      <c r="O3">
+        <v>3251.49</v>
+      </c>
+      <c r="P3">
+        <v>40643.68</v>
+      </c>
+      <c r="Q3">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>849.95479999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>-21268452.420000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>16459</v>
+      </c>
+      <c r="C4">
+        <v>19712511</v>
+      </c>
+      <c r="D4">
+        <v>32628</v>
+      </c>
+      <c r="E4">
+        <v>13614485</v>
+      </c>
+      <c r="F4">
+        <v>2068988</v>
+      </c>
+      <c r="G4">
+        <v>45990</v>
+      </c>
+      <c r="H4">
+        <v>45990</v>
+      </c>
+      <c r="I4">
+        <v>61320</v>
+      </c>
+      <c r="J4">
+        <v>61320</v>
+      </c>
+      <c r="K4">
+        <v>45990</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>944.33</v>
+      </c>
+      <c r="N4">
+        <v>944.33</v>
+      </c>
+      <c r="O4">
+        <v>3251.49</v>
+      </c>
+      <c r="P4">
+        <v>20321.84</v>
+      </c>
+      <c r="Q4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>843.11869999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.75</v>
+      </c>
+      <c r="U4">
+        <v>-32149796.210000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>35019</v>
+      </c>
+      <c r="C5">
+        <v>41940634</v>
+      </c>
+      <c r="D5">
+        <v>113618</v>
+      </c>
+      <c r="E5">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>45990</v>
+      </c>
+      <c r="H5">
+        <v>45990</v>
+      </c>
+      <c r="I5">
+        <v>61320</v>
+      </c>
+      <c r="J5">
+        <v>61320</v>
+      </c>
+      <c r="K5">
+        <v>45990</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3251.49</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1586.3235999999999</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>-81284720.049999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF05BFBD-BC20-4771-9B7C-77B617057DDC}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3234</v>
+      </c>
+      <c r="C2">
+        <v>3873134</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3585221</v>
+      </c>
+      <c r="F2">
+        <v>5014</v>
+      </c>
+      <c r="G2">
+        <v>12111</v>
+      </c>
+      <c r="H2">
+        <v>48434</v>
+      </c>
+      <c r="I2">
+        <v>64579</v>
+      </c>
+      <c r="J2">
+        <v>64579</v>
+      </c>
+      <c r="K2">
+        <v>48434</v>
+      </c>
+      <c r="L2">
+        <v>48431</v>
+      </c>
+      <c r="M2">
+        <v>2568.25</v>
+      </c>
+      <c r="N2">
+        <v>0.2</v>
+      </c>
+      <c r="O2">
+        <v>3424.29</v>
+      </c>
+      <c r="P2">
+        <v>64205.45</v>
+      </c>
+      <c r="Q2">
+        <v>85607.26</v>
+      </c>
+      <c r="R2">
+        <v>64201.14</v>
+      </c>
+      <c r="S2">
+        <v>210.85059999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.25</v>
+      </c>
+      <c r="U2">
+        <v>-2844564.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2909</v>
+      </c>
+      <c r="C3">
+        <v>3417017</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3723123</v>
+      </c>
+      <c r="F3">
+        <v>385780</v>
+      </c>
+      <c r="G3">
+        <v>12577</v>
+      </c>
+      <c r="H3">
+        <v>48434</v>
+      </c>
+      <c r="I3">
+        <v>64579</v>
+      </c>
+      <c r="J3">
+        <v>64579</v>
+      </c>
+      <c r="K3">
+        <v>48434</v>
+      </c>
+      <c r="L3">
+        <v>47810</v>
+      </c>
+      <c r="M3">
+        <v>2573.5700000000002</v>
+      </c>
+      <c r="N3">
+        <v>38.46</v>
+      </c>
+      <c r="O3">
+        <v>3424.29</v>
+      </c>
+      <c r="P3">
+        <v>64205.440000000002</v>
+      </c>
+      <c r="Q3">
+        <v>85607.26</v>
+      </c>
+      <c r="R3">
+        <v>63377.77</v>
+      </c>
+      <c r="S3">
+        <v>170.68</v>
+      </c>
+      <c r="T3">
+        <v>0.25</v>
+      </c>
+      <c r="U3">
+        <v>-2300576.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2697</v>
+      </c>
+      <c r="C4">
+        <v>3555953</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3474229</v>
+      </c>
+      <c r="F4">
+        <v>4632</v>
+      </c>
+      <c r="G4">
+        <v>11736</v>
+      </c>
+      <c r="H4">
+        <v>46948</v>
+      </c>
+      <c r="I4">
+        <v>62597</v>
+      </c>
+      <c r="J4">
+        <v>62597</v>
+      </c>
+      <c r="K4">
+        <v>46948</v>
+      </c>
+      <c r="L4">
+        <v>46949</v>
+      </c>
+      <c r="M4">
+        <v>2489.41</v>
+      </c>
+      <c r="N4">
+        <v>-0.08</v>
+      </c>
+      <c r="O4">
+        <v>3319.22</v>
+      </c>
+      <c r="P4">
+        <v>62235.44</v>
+      </c>
+      <c r="Q4">
+        <v>82980.59</v>
+      </c>
+      <c r="R4">
+        <v>62237.16</v>
+      </c>
+      <c r="S4">
+        <v>193.3271</v>
+      </c>
+      <c r="T4">
+        <v>0.25</v>
+      </c>
+      <c r="U4">
+        <v>-2528140.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2512</v>
+      </c>
+      <c r="C5">
+        <v>3578632</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3504009</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11837</v>
+      </c>
+      <c r="H5">
+        <v>47346</v>
+      </c>
+      <c r="I5">
+        <v>63129</v>
+      </c>
+      <c r="J5">
+        <v>63129</v>
+      </c>
+      <c r="K5">
+        <v>47346</v>
+      </c>
+      <c r="L5">
+        <v>47346</v>
+      </c>
+      <c r="M5">
+        <v>2510.5500000000002</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3347.4</v>
+      </c>
+      <c r="P5">
+        <v>62763.66</v>
+      </c>
+      <c r="Q5">
+        <v>83684.88</v>
+      </c>
+      <c r="R5">
+        <v>62763.66</v>
+      </c>
+      <c r="S5">
+        <v>144.65870000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.25</v>
+      </c>
+      <c r="U5">
+        <v>-1907751.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9FD5A2-21A2-406E-943D-AF395A44688E}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3071</v>
+      </c>
+      <c r="C2">
+        <v>3677688</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3404304</v>
+      </c>
+      <c r="F2">
+        <v>4761</v>
+      </c>
+      <c r="G2">
+        <v>11500</v>
+      </c>
+      <c r="H2">
+        <v>45990</v>
+      </c>
+      <c r="I2">
+        <v>61320</v>
+      </c>
+      <c r="J2">
+        <v>61320</v>
+      </c>
+      <c r="K2">
+        <v>45990</v>
+      </c>
+      <c r="L2">
+        <v>45987</v>
+      </c>
+      <c r="M2">
+        <v>2438.65</v>
+      </c>
+      <c r="N2">
+        <v>0.19</v>
+      </c>
+      <c r="O2">
+        <v>3251.49</v>
+      </c>
+      <c r="P2">
+        <v>60965.52</v>
+      </c>
+      <c r="Q2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R2">
+        <v>60961.43</v>
+      </c>
+      <c r="S2">
+        <v>210.85130000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.25</v>
+      </c>
+      <c r="U2">
+        <v>-2701022.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7115</v>
+      </c>
+      <c r="C3">
+        <v>8521096</v>
+      </c>
+      <c r="D3">
+        <v>11514</v>
+      </c>
+      <c r="E3">
+        <v>6807692</v>
+      </c>
+      <c r="F3">
+        <v>3137</v>
+      </c>
+      <c r="G3">
+        <v>22997</v>
+      </c>
+      <c r="H3">
+        <v>45990</v>
+      </c>
+      <c r="I3">
+        <v>61320</v>
+      </c>
+      <c r="J3">
+        <v>61320</v>
+      </c>
+      <c r="K3">
+        <v>45990</v>
+      </c>
+      <c r="L3">
+        <v>30658</v>
+      </c>
+      <c r="M3">
+        <v>1625.76</v>
+      </c>
+      <c r="N3">
+        <v>0.13</v>
+      </c>
+      <c r="O3">
+        <v>3251.49</v>
+      </c>
+      <c r="P3">
+        <v>40643.68</v>
+      </c>
+      <c r="Q3">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R3">
+        <v>40640.980000000003</v>
+      </c>
+      <c r="S3">
+        <v>420.29660000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>-10768134.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11644</v>
+      </c>
+      <c r="C4">
+        <v>13945476</v>
+      </c>
+      <c r="D4">
+        <v>25145</v>
+      </c>
+      <c r="E4">
+        <v>10211400</v>
+      </c>
+      <c r="F4">
+        <v>3730</v>
+      </c>
+      <c r="G4">
+        <v>34494</v>
+      </c>
+      <c r="H4">
+        <v>45990</v>
+      </c>
+      <c r="I4">
+        <v>61320</v>
+      </c>
+      <c r="J4">
+        <v>61320</v>
+      </c>
+      <c r="K4">
+        <v>45990</v>
+      </c>
+      <c r="L4">
+        <v>15328</v>
+      </c>
+      <c r="M4">
+        <v>812.89</v>
+      </c>
+      <c r="N4">
+        <v>0.15</v>
+      </c>
+      <c r="O4">
+        <v>3251.49</v>
+      </c>
+      <c r="P4">
+        <v>20321.84</v>
+      </c>
+      <c r="Q4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R4">
+        <v>20318.63</v>
+      </c>
+      <c r="S4">
+        <v>591.48199999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.75</v>
+      </c>
+      <c r="U4">
+        <v>-22730981.510000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>35019</v>
+      </c>
+      <c r="C5">
+        <v>41940634</v>
+      </c>
+      <c r="D5">
+        <v>113618</v>
+      </c>
+      <c r="E5">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>45990</v>
+      </c>
+      <c r="H5">
+        <v>45990</v>
+      </c>
+      <c r="I5">
+        <v>61320</v>
+      </c>
+      <c r="J5">
+        <v>61320</v>
+      </c>
+      <c r="K5">
+        <v>45990</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3251.49</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1586.3235999999999</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>-81284720.049999997</v>
       </c>
     </row>
   </sheetData>
@@ -6628,22 +9266,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE92C99-763D-4266-A92E-E8FFFC9475FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A182E3C1-1DE0-4E2D-A275-59BAF2F28188}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6660,7 +9298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6677,7 +9315,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6694,7 +9332,7 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6711,7 +9349,7 @@
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6734,14 +9372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7766F6-4451-4959-B235-348E84E5D72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3994EE63-FF7E-4BE9-8C95-C0000164ECAD}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6767,7 +9405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6793,7 +9431,7 @@
         <v>-2741986.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6819,7 +9457,7 @@
         <v>-2296535.7799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6845,7 +9483,7 @@
         <v>-2543875.48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6877,20 +9515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE35B8B5-B6EC-4D1E-B7BB-8A9DD849FFC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9560C2C8-3E21-4FBE-B651-EC05B97A277C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6942,7 +9580,7 @@
         <v>-8339592.2800000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6968,7 +9606,7 @@
         <v>-15742760.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6994,7 +9632,7 @@
         <v>-27788443.390000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7026,14 +9664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F139C7D-7C91-42B0-896A-470227B3287A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869D2B3A-D029-4B02-AF50-659667B9D01A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7059,7 +9697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7085,7 +9723,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7111,7 +9749,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7137,7 +9775,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7169,14 +9807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB8AAE9-0D53-4706-B083-9238A8122934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA737-6FAC-411D-92EA-DBD204F42411}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7202,7 +9840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7228,7 +9866,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7254,7 +9892,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7280,7 +9918,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7312,25 +9950,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C9C43-10BB-4347-ACE4-7D7A1E581318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD2990-8185-4DED-9CE4-009A477E090C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7356,7 +9994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7382,7 +10020,7 @@
         <v>-66.068299999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7408,7 +10046,7 @@
         <v>-140.63720000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7434,7 +10072,7 @@
         <v>-52.133899999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>

--- a/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
+++ b/REopt Julia Package Scripts/results/results_emissions_reductions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt-Analysis-Scripts\REopt Julia Package Scripts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97027380-B261-484C-A9EA-12A62E31933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D1FF9-7E0D-4921-BE36-A69F81CEAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="146" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="153" activeTab="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultsA_0" sheetId="2" r:id="rId1"/>
@@ -166,6 +166,13 @@
     <sheet name="resultsC_20" sheetId="160" r:id="rId151"/>
     <sheet name="resultsD_16" sheetId="161" r:id="rId152"/>
     <sheet name="resultsE_16" sheetId="162" r:id="rId153"/>
+    <sheet name="resultsA_42" sheetId="163" r:id="rId154"/>
+    <sheet name="resultsB_35" sheetId="164" r:id="rId155"/>
+    <sheet name="resultsA_43" sheetId="165" r:id="rId156"/>
+    <sheet name="resultsB_36" sheetId="166" r:id="rId157"/>
+    <sheet name="resultsC_21" sheetId="167" r:id="rId158"/>
+    <sheet name="resultsD_17" sheetId="168" r:id="rId159"/>
+    <sheet name="resultsE_17" sheetId="169" r:id="rId160"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -188,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="73">
   <si>
     <t>City</t>
   </si>
@@ -788,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF22478-D161-47E8-B554-B4D98F0FB360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3CAEE8-B0F9-4020-AC07-98083A96BAD0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -886,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F35D258-8964-4CA5-BA02-53E51EB933E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377703D2-6998-4D86-887A-5A0D67593369}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA964E7D-A8DD-4578-880F-1F69213B6092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BA534E-D787-4CAB-A67E-48DE1D8452C4}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1198,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0412A85E-F9AF-42DB-B053-D4114A4B068F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8638873E-5DDE-4F57-A034-26522D119C3B}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80F21FD-DD6F-4F25-8BD4-A5AFE541AE99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E4040-8138-4F08-9FC7-8A3A8DA26A21}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1498,7 +1505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C57F02-8952-44AB-9904-490835453641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4375E4-C1BE-4BAE-A562-6CE2CAB01D63}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA4CAD4-A96D-477A-880C-256AF3089CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AF6658-0935-483D-89C1-EE7BAD397E44}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1796,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A97A4E5-D901-4B62-BB85-A5A5D1778195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631B9076-D00E-4388-8661-CC5927A7E74E}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2134,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC3C418-71AE-4DD0-8D97-F4267A98E174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C98A8AE-716C-4D82-9949-881F6AFE3619}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2472,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E705B9-3239-4841-9160-D2DC715BCCF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5475771B-9094-4A46-BB19-23662B49036A}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB91A92-1A2C-4821-8FBD-2144BB9F81D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FA9E01-348C-4956-B950-1B26AD2C43E8}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -3188,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130BECCC-4A0C-4C13-8B05-CD9851C3C069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD6791-EC91-4BB9-822A-C7CAFB3B3B4B}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -3563,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CED8E6-AC15-4251-A801-134C964D98D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EA334D-9474-4348-864B-FFE70BB26792}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3726,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC939180-472D-4742-A7A5-63832FCF9E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45649F05-C65C-4967-8ED5-7470AE9390DB}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4102,7 +4109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CD5FBF-24CB-4C7B-8366-8A97802ECCD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBCCFF2-D087-4499-9226-3C4B9727CDDB}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4405,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B8259E-5BAF-4D83-9FE4-28CC5E84F449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B55502-B474-4BAE-8048-4C525F44D04F}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4775,7 +4782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC2D9E-BE55-4574-919D-961288013442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284EEF1B-AEA6-41F9-AF8C-136749695263}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5145,7 +5152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0170A986-FE9F-4490-9757-184ADCC4FFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA47B06E-B1F2-42EB-A762-6A881083BBA2}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,7 +5522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9062CEBC-B288-47CF-892E-37F414ADEEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7C748B-4C00-4C6D-84FF-7DD173BE5A90}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5885,7 +5892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939859D0-5DA3-479E-934D-2299F89079F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D942D14-43A7-43DB-86D3-F8250394E170}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6178,7 +6185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22886A4C-0558-4247-B6F2-1990AC822780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA3597-6D6E-4F0B-ACC5-5FDC296BEDD7}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6546,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6FC5BB-39C2-4970-A591-544B0BFE958F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD298FC-7832-4968-89A6-ADAAD41360C7}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6916,7 +6923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD586-2ED2-4FB0-976B-E35FB079CA5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B60129-A2A3-4E59-AA16-73EAB51C4767}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7284,7 +7291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4D448F-47AB-4132-9D65-1412F63483B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D97958-5269-43CD-8678-7A12CCFBA26A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7437,7 +7444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F77772-6917-4DE1-8F74-8CA4C15EB367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A435EE4-DF28-499B-B1ED-0661B456F3D1}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7805,7 +7812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117BDDEE-96A5-4494-9CC7-F89F10EDA0BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027DA325-8901-4335-B229-5D68A66A3983}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8098,7 +8105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1185C16-EC0E-4E79-86FD-3DCDFA562A59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA6C5F5-AF13-433E-B86F-8265DD23B947}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8466,7 +8473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A135792-6CAE-4275-B5D4-B3E41264B950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2F071-52FD-4F9F-95F9-EA6B2D5E4C36}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8759,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6C5BE-3596-4B79-9414-0C3B305B8350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D660BE-2955-458A-9FEE-7FA4B04232E1}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9127,7 +9134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C4B6C1-9808-400E-A16A-5BE3CBA21D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011AA62B-F570-4806-AA74-49CF191C4E2E}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9420,7 +9427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6930B9-299A-4E60-8573-9D3E286F499B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A095CB-FD95-4FA4-BE24-F4CE07318FAB}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9788,7 +9795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE35C9C9-DBCC-45D8-B7E8-939681B14531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201871A7-0255-41BD-BB9D-C26CCEA91A0E}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10081,7 +10088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CCE35E-D6E6-4F9A-9F54-C005FEA17776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717514AD-0234-4321-9A9D-B8B559958A0E}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10449,7 +10456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F20E2-75C2-4B6A-B966-198791792B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E5CD-3B78-483E-8C4A-BC689B41D816}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10742,7 +10749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01F53C7-BE74-490D-8FA8-90FB41ECDDC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67732598-CD08-4CC3-8BC4-C9114E0499CF}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10926,7 +10933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1507D293-14D9-45C0-AA91-62681F352A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD8FD2-7A34-40FF-8B69-D5E90445566E}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11294,7 +11301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2564690-EC25-4A52-AC25-DE3A29479F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7976761-157C-4981-8BD9-F99F1F30216C}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11587,7 +11594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF183F08-FE5B-458B-AC56-A1B97F6E4682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA29740-A5EE-4E19-8828-B070A687229B}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11955,7 +11962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C004B3-9D91-4F08-8A81-90080E1FF1FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695A88C-5E5B-4A36-B4AC-E84E5854B7AC}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12248,7 +12255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9B754A-6374-4CA7-BA6C-319B538D0087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86784F6E-7278-424B-ADF3-C4E3861B34C6}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12616,7 +12623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E16FF-3B9F-4547-A5FD-421656BB4FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1BB595-A39B-489E-9A5B-BA148215EEB6}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12911,7 +12918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AF2126-06E1-429A-9EF4-672491598592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090FFFA2-3AF2-4031-992B-E30C996F732B}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13279,7 +13286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F9D29D-7847-4E28-BDA9-170248A2BF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B05AF6E-EE05-44F9-8AD6-675162B72FCF}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -13652,7 +13659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536F0286-B69B-45F4-8BDF-249C11125CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB7FF91-E228-426D-85C4-4FCC8AF1DDE9}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14020,7 +14027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A5FCE-1425-4F35-BC34-657D81DC8198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4BD282-5224-4755-9FB2-AB0FCCE57296}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14396,7 +14403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3161CFF8-4407-4A3F-BA85-735B1F9FFE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A482DD39-1DD8-4DD2-9048-22AAFDF1D419}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14578,7 +14585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECB632-E9FF-4576-B73E-6E98C74421BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F518F96E-FB06-4E74-B9D6-EAB1545C7942}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14871,7 +14878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6B4611-BC15-47DE-A5F6-CA7F977BC6D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543BD120-C840-4612-BC96-E9196C093BDD}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15239,7 +15246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA3E18F-098F-4798-B719-EDAE73736111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206F075-BC6E-4604-845F-DE4948C5EFA1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15532,7 +15539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E956E-C447-4EA1-B7E0-5C877BCC6B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2395BD4F-A8CE-44A9-9C8D-B70797EBB468}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15900,7 +15907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36F89E-F3F0-4C90-BA2B-56CE68A8A79C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0038C7A3-D98D-4900-A3A9-E271265BAF09}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -16200,7 +16207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FD17DF-67A0-47A9-9A13-79F4CA3ADC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC7D1CC-EF29-4BED-B2F3-67674D205220}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16579,7 +16586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DAE976-1345-4185-9BBD-755E585EC4BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D2AEFD-B1AD-419A-8DFC-F4A9E7863DF6}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16957,7 +16964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C759C6C-A28A-4B28-893D-108DB0B5B79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154FCFD7-AAAE-4450-961D-22164E88B5B1}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -17333,7 +17340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E814EFFB-7A73-4A70-BC67-A28ADC51BC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB514B92-96A2-451E-AEB5-FB97C05E22EF}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17709,10 +17716,10 @@
 </file>
 
 <file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F869CB-1C8B-4682-81D2-79190BF6851D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330226AA-B6D0-4338-A935-782344F01F19}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -18002,7 +18009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60FA33D-8389-4E01-B79C-7DD3BD04E5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAD9928-A5A0-444D-A223-49664A6D5373}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18232,7 +18239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D2167E-07D2-4F6E-8B7B-AA239A825A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC37CF-7D44-4BD2-A56A-48F32A4A7407}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18605,7 +18612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520696C-054E-40BD-9BE6-968E0DB8513D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802EAA31-83A5-42BE-880C-ACE993FA3AF7}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -18984,7 +18991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A5BF3-0609-4867-8C39-57031EAD60E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049B56B7-B139-4058-8195-C38412FC1884}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -19357,7 +19364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DDEB3D-26C7-47F0-A951-E06DBB0A3187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CD361E-672E-4369-ACDA-518D45B2569C}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -19729,8 +19736,2139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F295097-7D97-478C-93C5-776D2C6E1C2D}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>13614485</v>
+      </c>
+      <c r="C2">
+        <v>13614484</v>
+      </c>
+      <c r="D2">
+        <v>45990</v>
+      </c>
+      <c r="E2">
+        <v>45990</v>
+      </c>
+      <c r="F2">
+        <v>61320</v>
+      </c>
+      <c r="G2">
+        <v>61320</v>
+      </c>
+      <c r="H2">
+        <v>45990</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="K2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="L2">
+        <v>3251.49</v>
+      </c>
+      <c r="M2">
+        <v>212486.08</v>
+      </c>
+      <c r="N2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-1.61</v>
+      </c>
+      <c r="R2">
+        <v>-5661648.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>13614485</v>
+      </c>
+      <c r="C3">
+        <v>13614484</v>
+      </c>
+      <c r="D3">
+        <v>45990</v>
+      </c>
+      <c r="E3">
+        <v>45990</v>
+      </c>
+      <c r="F3">
+        <v>61320</v>
+      </c>
+      <c r="G3">
+        <v>61320</v>
+      </c>
+      <c r="H3">
+        <v>45990</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6624.5</v>
+      </c>
+      <c r="K3">
+        <v>6624.5</v>
+      </c>
+      <c r="L3">
+        <v>3251.49</v>
+      </c>
+      <c r="M3">
+        <v>142558.26</v>
+      </c>
+      <c r="N3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>-0.75</v>
+      </c>
+      <c r="R3">
+        <v>-5853986.5099999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13614485</v>
+      </c>
+      <c r="C4">
+        <v>13614484</v>
+      </c>
+      <c r="D4">
+        <v>45990</v>
+      </c>
+      <c r="E4">
+        <v>45990</v>
+      </c>
+      <c r="F4">
+        <v>61320</v>
+      </c>
+      <c r="G4">
+        <v>61320</v>
+      </c>
+      <c r="H4">
+        <v>45990</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11250.64</v>
+      </c>
+      <c r="K4">
+        <v>11250.64</v>
+      </c>
+      <c r="L4">
+        <v>3251.49</v>
+      </c>
+      <c r="M4">
+        <v>242112.23</v>
+      </c>
+      <c r="N4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-1.98</v>
+      </c>
+      <c r="R4">
+        <v>-5481819.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>13614485</v>
+      </c>
+      <c r="C5">
+        <v>13614484</v>
+      </c>
+      <c r="D5">
+        <v>45990</v>
+      </c>
+      <c r="E5">
+        <v>45990</v>
+      </c>
+      <c r="F5">
+        <v>61320</v>
+      </c>
+      <c r="G5">
+        <v>61320</v>
+      </c>
+      <c r="H5">
+        <v>45990</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6675.22</v>
+      </c>
+      <c r="K5">
+        <v>6675.22</v>
+      </c>
+      <c r="L5">
+        <v>3251.49</v>
+      </c>
+      <c r="M5">
+        <v>143649.88</v>
+      </c>
+      <c r="N5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-0.77</v>
+      </c>
+      <c r="R5">
+        <v>-6781392.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72737CD7-FA9D-483D-B350-D9CEA0CD9138}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8036</v>
+      </c>
+      <c r="C2">
+        <v>9624476</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13614485</v>
+      </c>
+      <c r="F2">
+        <v>8749911</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4759903</v>
+      </c>
+      <c r="I2">
+        <v>45990</v>
+      </c>
+      <c r="J2">
+        <v>45990</v>
+      </c>
+      <c r="K2">
+        <v>61320</v>
+      </c>
+      <c r="L2">
+        <v>61320</v>
+      </c>
+      <c r="M2">
+        <v>45990</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2832.99</v>
+      </c>
+      <c r="P2">
+        <v>2832.99</v>
+      </c>
+      <c r="Q2">
+        <v>3251.49</v>
+      </c>
+      <c r="R2">
+        <v>60965.52</v>
+      </c>
+      <c r="S2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>-8286766.3399999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6555</v>
+      </c>
+      <c r="C3">
+        <v>7698801</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>13614485</v>
+      </c>
+      <c r="F3">
+        <v>8930507</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3014824</v>
+      </c>
+      <c r="I3">
+        <v>45990</v>
+      </c>
+      <c r="J3">
+        <v>45990</v>
+      </c>
+      <c r="K3">
+        <v>61320</v>
+      </c>
+      <c r="L3">
+        <v>61320</v>
+      </c>
+      <c r="M3">
+        <v>45990</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2832.99</v>
+      </c>
+      <c r="P3">
+        <v>2832.99</v>
+      </c>
+      <c r="Q3">
+        <v>3251.49</v>
+      </c>
+      <c r="R3">
+        <v>60965.51</v>
+      </c>
+      <c r="S3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>-7059258.9500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7827</v>
+      </c>
+      <c r="C4">
+        <v>10320766</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>13614485</v>
+      </c>
+      <c r="F4">
+        <v>8460802</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5167084</v>
+      </c>
+      <c r="I4">
+        <v>45990</v>
+      </c>
+      <c r="J4">
+        <v>45990</v>
+      </c>
+      <c r="K4">
+        <v>61320</v>
+      </c>
+      <c r="L4">
+        <v>61320</v>
+      </c>
+      <c r="M4">
+        <v>45990</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2832.99</v>
+      </c>
+      <c r="P4">
+        <v>2832.99</v>
+      </c>
+      <c r="Q4">
+        <v>3251.49</v>
+      </c>
+      <c r="R4">
+        <v>60965.52</v>
+      </c>
+      <c r="S4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>-8326987.5499999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5466</v>
+      </c>
+      <c r="C5">
+        <v>7787032</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>8801318</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2973865</v>
+      </c>
+      <c r="I5">
+        <v>45990</v>
+      </c>
+      <c r="J5">
+        <v>45990</v>
+      </c>
+      <c r="K5">
+        <v>61320</v>
+      </c>
+      <c r="L5">
+        <v>61320</v>
+      </c>
+      <c r="M5">
+        <v>45990</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2832.99</v>
+      </c>
+      <c r="P5">
+        <v>2832.99</v>
+      </c>
+      <c r="Q5">
+        <v>3251.49</v>
+      </c>
+      <c r="R5">
+        <v>60965.51</v>
+      </c>
+      <c r="S5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>-6789209.9699999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F31EB3-EEC2-4414-AD85-142A88BC0CAB}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>13614485</v>
+      </c>
+      <c r="C2">
+        <v>13614484</v>
+      </c>
+      <c r="D2">
+        <v>45990</v>
+      </c>
+      <c r="E2">
+        <v>45990</v>
+      </c>
+      <c r="F2">
+        <v>61320</v>
+      </c>
+      <c r="G2">
+        <v>61320</v>
+      </c>
+      <c r="H2">
+        <v>45990</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="K2">
+        <v>9873.9500000000007</v>
+      </c>
+      <c r="L2">
+        <v>3251.49</v>
+      </c>
+      <c r="M2">
+        <v>212486.08</v>
+      </c>
+      <c r="N2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-1.61</v>
+      </c>
+      <c r="R2">
+        <v>-5661648.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>13614485</v>
+      </c>
+      <c r="C3">
+        <v>13614484</v>
+      </c>
+      <c r="D3">
+        <v>45990</v>
+      </c>
+      <c r="E3">
+        <v>45990</v>
+      </c>
+      <c r="F3">
+        <v>61320</v>
+      </c>
+      <c r="G3">
+        <v>61320</v>
+      </c>
+      <c r="H3">
+        <v>45990</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6624.5</v>
+      </c>
+      <c r="K3">
+        <v>6624.5</v>
+      </c>
+      <c r="L3">
+        <v>3251.49</v>
+      </c>
+      <c r="M3">
+        <v>142558.26</v>
+      </c>
+      <c r="N3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>-0.75</v>
+      </c>
+      <c r="R3">
+        <v>-5853986.5099999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13614485</v>
+      </c>
+      <c r="C4">
+        <v>13614484</v>
+      </c>
+      <c r="D4">
+        <v>45990</v>
+      </c>
+      <c r="E4">
+        <v>45990</v>
+      </c>
+      <c r="F4">
+        <v>61320</v>
+      </c>
+      <c r="G4">
+        <v>61320</v>
+      </c>
+      <c r="H4">
+        <v>45990</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11250.64</v>
+      </c>
+      <c r="K4">
+        <v>11250.64</v>
+      </c>
+      <c r="L4">
+        <v>3251.49</v>
+      </c>
+      <c r="M4">
+        <v>242112.23</v>
+      </c>
+      <c r="N4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-1.98</v>
+      </c>
+      <c r="R4">
+        <v>-5481819.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>13614485</v>
+      </c>
+      <c r="C5">
+        <v>13614484</v>
+      </c>
+      <c r="D5">
+        <v>45990</v>
+      </c>
+      <c r="E5">
+        <v>45990</v>
+      </c>
+      <c r="F5">
+        <v>61320</v>
+      </c>
+      <c r="G5">
+        <v>61320</v>
+      </c>
+      <c r="H5">
+        <v>45990</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6675.22</v>
+      </c>
+      <c r="K5">
+        <v>6675.22</v>
+      </c>
+      <c r="L5">
+        <v>3251.49</v>
+      </c>
+      <c r="M5">
+        <v>143649.88</v>
+      </c>
+      <c r="N5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-0.77</v>
+      </c>
+      <c r="R5">
+        <v>-6781392.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA7286-4913-45E0-8D88-30F8177E2CD1}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8036</v>
+      </c>
+      <c r="C2">
+        <v>9624476</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13614485</v>
+      </c>
+      <c r="F2">
+        <v>8749911</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4759903</v>
+      </c>
+      <c r="I2">
+        <v>45990</v>
+      </c>
+      <c r="J2">
+        <v>45990</v>
+      </c>
+      <c r="K2">
+        <v>61320</v>
+      </c>
+      <c r="L2">
+        <v>61320</v>
+      </c>
+      <c r="M2">
+        <v>45990</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2832.99</v>
+      </c>
+      <c r="P2">
+        <v>2832.99</v>
+      </c>
+      <c r="Q2">
+        <v>3251.49</v>
+      </c>
+      <c r="R2">
+        <v>60965.52</v>
+      </c>
+      <c r="S2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>-8286766.3399999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6555</v>
+      </c>
+      <c r="C3">
+        <v>7698801</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>13614485</v>
+      </c>
+      <c r="F3">
+        <v>8930507</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3014824</v>
+      </c>
+      <c r="I3">
+        <v>45990</v>
+      </c>
+      <c r="J3">
+        <v>45990</v>
+      </c>
+      <c r="K3">
+        <v>61320</v>
+      </c>
+      <c r="L3">
+        <v>61320</v>
+      </c>
+      <c r="M3">
+        <v>45990</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2832.99</v>
+      </c>
+      <c r="P3">
+        <v>2832.99</v>
+      </c>
+      <c r="Q3">
+        <v>3251.49</v>
+      </c>
+      <c r="R3">
+        <v>60965.51</v>
+      </c>
+      <c r="S3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>-7059258.9500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7827</v>
+      </c>
+      <c r="C4">
+        <v>10320766</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>13614485</v>
+      </c>
+      <c r="F4">
+        <v>8460802</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5167084</v>
+      </c>
+      <c r="I4">
+        <v>45990</v>
+      </c>
+      <c r="J4">
+        <v>45990</v>
+      </c>
+      <c r="K4">
+        <v>61320</v>
+      </c>
+      <c r="L4">
+        <v>61320</v>
+      </c>
+      <c r="M4">
+        <v>45990</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2832.99</v>
+      </c>
+      <c r="P4">
+        <v>2832.99</v>
+      </c>
+      <c r="Q4">
+        <v>3251.49</v>
+      </c>
+      <c r="R4">
+        <v>60965.52</v>
+      </c>
+      <c r="S4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>-8326987.5499999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5466</v>
+      </c>
+      <c r="C5">
+        <v>7787032</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>8801318</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2973865</v>
+      </c>
+      <c r="I5">
+        <v>45990</v>
+      </c>
+      <c r="J5">
+        <v>45990</v>
+      </c>
+      <c r="K5">
+        <v>61320</v>
+      </c>
+      <c r="L5">
+        <v>61320</v>
+      </c>
+      <c r="M5">
+        <v>45990</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2832.99</v>
+      </c>
+      <c r="P5">
+        <v>2832.99</v>
+      </c>
+      <c r="Q5">
+        <v>3251.49</v>
+      </c>
+      <c r="R5">
+        <v>60965.51</v>
+      </c>
+      <c r="S5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>-6789209.9699999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E3E83D-FE94-4B3A-950E-F40F9C700466}">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6958</v>
+      </c>
+      <c r="C2">
+        <v>8333648</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13614485</v>
+      </c>
+      <c r="F2">
+        <v>8929105</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3648269</v>
+      </c>
+      <c r="I2">
+        <v>45990</v>
+      </c>
+      <c r="J2">
+        <v>45990</v>
+      </c>
+      <c r="K2">
+        <v>61320</v>
+      </c>
+      <c r="L2">
+        <v>61320</v>
+      </c>
+      <c r="M2">
+        <v>45990</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3777.32</v>
+      </c>
+      <c r="P2">
+        <v>3777.32</v>
+      </c>
+      <c r="Q2">
+        <v>3251.49</v>
+      </c>
+      <c r="R2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="S2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>-7934806.4900000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>8036</v>
+      </c>
+      <c r="C3">
+        <v>9624476</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>13614485</v>
+      </c>
+      <c r="F3">
+        <v>8749911</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4759903</v>
+      </c>
+      <c r="I3">
+        <v>45990</v>
+      </c>
+      <c r="J3">
+        <v>45990</v>
+      </c>
+      <c r="K3">
+        <v>61320</v>
+      </c>
+      <c r="L3">
+        <v>61320</v>
+      </c>
+      <c r="M3">
+        <v>45990</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2832.99</v>
+      </c>
+      <c r="P3">
+        <v>2832.99</v>
+      </c>
+      <c r="Q3">
+        <v>3251.49</v>
+      </c>
+      <c r="R3">
+        <v>60965.52</v>
+      </c>
+      <c r="S3">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>-8286921.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>9114</v>
+      </c>
+      <c r="C4">
+        <v>10915305</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>13614485</v>
+      </c>
+      <c r="F4">
+        <v>8600215</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5901035</v>
+      </c>
+      <c r="I4">
+        <v>45990</v>
+      </c>
+      <c r="J4">
+        <v>45990</v>
+      </c>
+      <c r="K4">
+        <v>61320</v>
+      </c>
+      <c r="L4">
+        <v>61320</v>
+      </c>
+      <c r="M4">
+        <v>45990</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1888.66</v>
+      </c>
+      <c r="P4">
+        <v>1888.66</v>
+      </c>
+      <c r="Q4">
+        <v>3251.49</v>
+      </c>
+      <c r="R4">
+        <v>40643.68</v>
+      </c>
+      <c r="S4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>-8639038.4000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10192</v>
+      </c>
+      <c r="C5">
+        <v>12206133</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>13614485</v>
+      </c>
+      <c r="F5">
+        <v>8478348</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7069998</v>
+      </c>
+      <c r="I5">
+        <v>45990</v>
+      </c>
+      <c r="J5">
+        <v>45990</v>
+      </c>
+      <c r="K5">
+        <v>61320</v>
+      </c>
+      <c r="L5">
+        <v>61320</v>
+      </c>
+      <c r="M5">
+        <v>45990</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>944.33</v>
+      </c>
+      <c r="P5">
+        <v>944.33</v>
+      </c>
+      <c r="Q5">
+        <v>3251.49</v>
+      </c>
+      <c r="R5">
+        <v>20321.84</v>
+      </c>
+      <c r="S5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.75</v>
+      </c>
+      <c r="W5">
+        <v>-8991155.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11270</v>
+      </c>
+      <c r="C6">
+        <v>13496962</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>13614485</v>
+      </c>
+      <c r="F6">
+        <v>8377624</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8260102</v>
+      </c>
+      <c r="I6">
+        <v>45990</v>
+      </c>
+      <c r="J6">
+        <v>45990</v>
+      </c>
+      <c r="K6">
+        <v>61320</v>
+      </c>
+      <c r="L6">
+        <v>61320</v>
+      </c>
+      <c r="M6">
+        <v>45990</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3251.49</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>-9343273.7899999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855EFBCD-9740-402A-AE7A-7BFBF69D72E2}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1078</v>
+      </c>
+      <c r="C2">
+        <v>1290829</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1290828</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>45990</v>
+      </c>
+      <c r="K2">
+        <v>61320</v>
+      </c>
+      <c r="L2">
+        <v>61320</v>
+      </c>
+      <c r="M2">
+        <v>45990</v>
+      </c>
+      <c r="N2">
+        <v>61320</v>
+      </c>
+      <c r="O2">
+        <v>2307.16</v>
+      </c>
+      <c r="P2">
+        <v>-944.33</v>
+      </c>
+      <c r="Q2">
+        <v>3251.49</v>
+      </c>
+      <c r="R2">
+        <v>60965.52</v>
+      </c>
+      <c r="S2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T2">
+        <v>81287.34</v>
+      </c>
+      <c r="U2">
+        <v>3251</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>-376756.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1633</v>
+      </c>
+      <c r="C3">
+        <v>1917496</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1917496</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>45990</v>
+      </c>
+      <c r="K3">
+        <v>61320</v>
+      </c>
+      <c r="L3">
+        <v>61320</v>
+      </c>
+      <c r="M3">
+        <v>45990</v>
+      </c>
+      <c r="N3">
+        <v>61320</v>
+      </c>
+      <c r="O3">
+        <v>2307.16</v>
+      </c>
+      <c r="P3">
+        <v>-944.33</v>
+      </c>
+      <c r="Q3">
+        <v>3251.49</v>
+      </c>
+      <c r="R3">
+        <v>60965.51</v>
+      </c>
+      <c r="S3">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T3">
+        <v>81287.34</v>
+      </c>
+      <c r="U3">
+        <v>3251</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>-324868.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>878</v>
+      </c>
+      <c r="C4">
+        <v>1157830</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1157829</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>45990</v>
+      </c>
+      <c r="K4">
+        <v>61320</v>
+      </c>
+      <c r="L4">
+        <v>61320</v>
+      </c>
+      <c r="M4">
+        <v>45990</v>
+      </c>
+      <c r="N4">
+        <v>61320</v>
+      </c>
+      <c r="O4">
+        <v>2307.16</v>
+      </c>
+      <c r="P4">
+        <v>-944.33</v>
+      </c>
+      <c r="Q4">
+        <v>3251.49</v>
+      </c>
+      <c r="R4">
+        <v>60965.52</v>
+      </c>
+      <c r="S4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T4">
+        <v>81287.34</v>
+      </c>
+      <c r="U4">
+        <v>3251</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>-343861.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1343</v>
+      </c>
+      <c r="C5">
+        <v>1913866</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1913866</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>45990</v>
+      </c>
+      <c r="K5">
+        <v>61320</v>
+      </c>
+      <c r="L5">
+        <v>61320</v>
+      </c>
+      <c r="M5">
+        <v>45990</v>
+      </c>
+      <c r="N5">
+        <v>61320</v>
+      </c>
+      <c r="O5">
+        <v>2307.16</v>
+      </c>
+      <c r="P5">
+        <v>-944.33</v>
+      </c>
+      <c r="Q5">
+        <v>3251.49</v>
+      </c>
+      <c r="R5">
+        <v>60965.51</v>
+      </c>
+      <c r="S5">
+        <v>81287.350000000006</v>
+      </c>
+      <c r="T5">
+        <v>81287.34</v>
+      </c>
+      <c r="U5">
+        <v>3251</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>-26599.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052CE081-C5E0-468E-9499-5FE89B4962EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79165506-11D5-4B4B-A158-62D5A4E58B3E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19992,8 +22130,449 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316DB398-AFF0-46A8-9B9A-0A3594C5F696}">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>45990</v>
+      </c>
+      <c r="K2">
+        <v>61320</v>
+      </c>
+      <c r="L2">
+        <v>61320</v>
+      </c>
+      <c r="M2">
+        <v>45990</v>
+      </c>
+      <c r="N2">
+        <v>61320</v>
+      </c>
+      <c r="O2">
+        <v>3251.49</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3251.49</v>
+      </c>
+      <c r="R2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="S2">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T2">
+        <v>81287.34</v>
+      </c>
+      <c r="U2">
+        <v>3251</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>-24677.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1078</v>
+      </c>
+      <c r="C3">
+        <v>1290829</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1290828</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>45990</v>
+      </c>
+      <c r="K3">
+        <v>61320</v>
+      </c>
+      <c r="L3">
+        <v>61320</v>
+      </c>
+      <c r="M3">
+        <v>45990</v>
+      </c>
+      <c r="N3">
+        <v>61320</v>
+      </c>
+      <c r="O3">
+        <v>2307.16</v>
+      </c>
+      <c r="P3">
+        <v>-944.33</v>
+      </c>
+      <c r="Q3">
+        <v>3251.49</v>
+      </c>
+      <c r="R3">
+        <v>60965.52</v>
+      </c>
+      <c r="S3">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T3">
+        <v>81287.34</v>
+      </c>
+      <c r="U3">
+        <v>3251</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>-376756.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2156</v>
+      </c>
+      <c r="C4">
+        <v>2581657</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2581657</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>45990</v>
+      </c>
+      <c r="K4">
+        <v>61320</v>
+      </c>
+      <c r="L4">
+        <v>61320</v>
+      </c>
+      <c r="M4">
+        <v>45990</v>
+      </c>
+      <c r="N4">
+        <v>61320</v>
+      </c>
+      <c r="O4">
+        <v>1362.84</v>
+      </c>
+      <c r="P4">
+        <v>-1888.66</v>
+      </c>
+      <c r="Q4">
+        <v>3251.49</v>
+      </c>
+      <c r="R4">
+        <v>40643.68</v>
+      </c>
+      <c r="S4">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T4">
+        <v>81287.34</v>
+      </c>
+      <c r="U4">
+        <v>3251</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>-728835.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3233</v>
+      </c>
+      <c r="C5">
+        <v>3872486</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3872485</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>45990</v>
+      </c>
+      <c r="K5">
+        <v>61320</v>
+      </c>
+      <c r="L5">
+        <v>61320</v>
+      </c>
+      <c r="M5">
+        <v>45990</v>
+      </c>
+      <c r="N5">
+        <v>61320</v>
+      </c>
+      <c r="O5">
+        <v>418.51</v>
+      </c>
+      <c r="P5">
+        <v>-2832.99</v>
+      </c>
+      <c r="Q5">
+        <v>3251.49</v>
+      </c>
+      <c r="R5">
+        <v>20321.84</v>
+      </c>
+      <c r="S5">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T5">
+        <v>81287.34</v>
+      </c>
+      <c r="U5">
+        <v>3251</v>
+      </c>
+      <c r="V5">
+        <v>0.75</v>
+      </c>
+      <c r="W5">
+        <v>-1080915.1000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4311</v>
+      </c>
+      <c r="C6">
+        <v>5163314</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5163314</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>45990</v>
+      </c>
+      <c r="K6">
+        <v>61320</v>
+      </c>
+      <c r="L6">
+        <v>61320</v>
+      </c>
+      <c r="M6">
+        <v>45990</v>
+      </c>
+      <c r="N6">
+        <v>61320</v>
+      </c>
+      <c r="O6">
+        <v>-525.82000000000005</v>
+      </c>
+      <c r="P6">
+        <v>-3777.32</v>
+      </c>
+      <c r="Q6">
+        <v>3251.49</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>81287.360000000001</v>
+      </c>
+      <c r="T6">
+        <v>81287.34</v>
+      </c>
+      <c r="U6">
+        <v>3251</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>-1432994.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0464D8-C13B-4915-ABE9-C439023EC650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3679A6-8870-40A8-9E54-9B763A188974}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20270,7 +22849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DD16A4-93BB-4244-9105-87C4C2E00056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D38BF1-C3C2-4044-AFF6-5A08337E282A}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20543,7 +23122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84E6B7-CAC8-4FA1-89A4-18D331FDC17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F11A93-DA0F-42E9-B29B-0A53EC1C1F43}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20814,7 +23393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D5B48E-B4FA-494F-8396-27852E727C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AD9F58-3EF0-4483-B8B5-676DA3956421}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20957,7 +23536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED70C12-900B-48A9-BCE3-D660FE662FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C90F3-9E10-4CE1-992A-1070DA884E58}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -21229,7 +23808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074B453B-A31C-4106-8C0D-5312E916CCEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA702D11-AE78-4BC0-BDC8-40B65462B8B9}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21578,7 +24157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C074984-1B3A-429D-8E5D-772508CBE9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A1431F-CB14-4238-9EA5-AA3DE72FC35C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21941,7 +24520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D359335F-8469-492C-86E8-56349671244A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE8900-6D83-4F4C-AB10-A362B8DC1956}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22303,7 +24882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2494CEBD-90BB-4CFE-BB39-7B645EB1D15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD51E4-19A4-4B82-B830-812C3A699360}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22668,7 +25247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570CB11-EB12-4454-A27B-E829B00360D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42DB2A8-C14F-4609-9FCA-8867D80D7490}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23033,7 +25612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2349D1EC-344A-4044-9BDE-E2A32365D910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602D5388-AA1E-444F-BB4D-AFC646ED6A34}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23371,7 +25950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED75D2-C1D0-4708-B52D-2B41EF55004D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226B0E6-908B-4132-9FCA-D4D936CF25E5}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23771,7 +26350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161E79A8-CCC0-4A23-ABC1-7DF1789B2C99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EE2398-E068-426A-96A9-BF564B5BE444}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -24118,7 +26697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBD79BE-364D-4DE3-9559-30896CABBC5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320B993C-D821-48C4-9D24-0E63A01F1149}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24396,7 +26975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D057E8-F50D-4318-A77A-C715625BC06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50781D78-B595-46B3-8DB1-A77D451E6C92}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24539,7 +27118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EDD6F5-0F4E-4EB8-92E6-90EC1BB0A108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F20E847-7C04-4372-8A04-30B38967235E}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24826,7 +27405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98746624-17F7-4606-94A2-9445CB00A4B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833C1CAA-B74D-4DA7-8C5D-9EDF6369931E}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -25175,7 +27754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A75B77F-2182-4A7C-B22C-27ADC66D93F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A7EB74-95F0-448A-A358-358837685D1D}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -25522,7 +28101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E6131-7014-4BC8-837F-FEE9E5743135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFF72BD-23AD-43CE-8380-B0BFC333C20A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25534,7 +28113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9F1E9D-BEF9-4F0B-AAF8-74BC685EA1AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE732F5-41FC-4B33-9375-083FD19C950B}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25812,7 +28391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3F8F2-948E-4A48-B6EF-6EFA0F9EF247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBF45EF-2CC1-4151-832F-B8C4501DFB0A}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26150,7 +28729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD17725-1D66-4B28-9D3C-761AADB481C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF073FEB-FAE2-4480-9A59-E2BD032F8A17}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26488,7 +29067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB28121-F34B-4C2D-AB2E-1D125F756737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144ED951-337D-405B-9C73-2277F0C19065}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26828,7 +29407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568B64E7-0962-4E2C-A518-6D849FF8242F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEF001A-F6EA-42BE-9427-BF8E40DD74F1}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27168,7 +29747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05F2120-1CDD-4B76-8103-399C044C35B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF73AA8A-8C81-4B66-99B0-C053978EC84F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27446,7 +30025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C3056-3702-4222-B700-730CB352C0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761C1104-0E41-44A5-913C-9AE5A7B0CA35}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -27552,7 +30131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2151CF-4310-4A57-B3E9-DDAFD85F3E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EC898F-1E8D-43CF-A3BB-59FF5F064945}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27840,7 +30419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6540A3-1FF1-4C17-8BC4-72778DDD622B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FCDA50-9A1B-40BE-B03A-04587698F59B}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28189,7 +30768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C7A4E6-394E-45B6-864E-8D5CD311FB04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E55974D-0B9B-4E81-9350-3746898B7963}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28539,7 +31118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D471CBB-2BEB-419C-BEA4-1E19C7417EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB8578-F759-440C-A034-14928CD32988}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28887,7 +31466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FD6C2-4559-4C22-8C2E-068030868CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE99932-C6F9-4EDC-80E4-D8FD4F3E4636}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29235,7 +31814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8916474-3FFA-4E6A-B79A-3B25C1AAF4CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3772A7-4908-4021-A670-89BB9E9A3F75}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29530,7 +32109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508BBEE6-EA8B-4247-95B2-F076C147F615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CE5E6E-8765-4412-BED4-F6ABDD3EDA04}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29885,7 +32464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492224EE-1D10-40E8-89E7-C5563938B42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB83625E-0583-4584-999C-5BACE0943B73}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30240,7 +32819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC91CE4B-A71B-478D-8F98-77410AE24A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3F494-D53E-4789-B655-793C10D39971}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30601,7 +33180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3ED69C-5019-408A-B2F8-931CBB47E515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138AE1C-3F56-44DB-8E30-3FD7387F1EE7}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30964,7 +33543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CF5E0D-76CB-4185-BF95-83D641624A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890E35C2-0FD9-45B3-AE3F-6B9C9EE45F84}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31107,7 +33686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B61FA-EDD8-48B5-8745-6F09AC781288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9699BD8E-0063-4E71-B106-6486E25D78FD}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31402,7 +33981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20738955-95A0-4026-8871-90976C98ED3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B6D30B-E119-4879-8D77-06CFD52D7661}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31757,7 +34336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5B6B3C-1648-44EB-8A6B-54A6985A814B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D78B88-9C0A-4B14-9A57-F8550E9E77CA}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32112,7 +34691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1C373C-98C3-4E54-8D51-BC588EB9C53E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDA79A2-5BD4-4104-82A8-C2F1D4383B08}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32467,7 +35046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BD31D5-90C5-4191-A023-C1747FCD5119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DFFA75-AB56-4FC3-97E6-7051CA0232E5}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32820,7 +35399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2449E2-4EAB-4FEB-BD7E-5E4DA74BDF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8D21E5-07E6-4E8C-BBA2-7A323393A39B}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33130,7 +35709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B15514-895F-435C-AEAA-F14DBA949682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACD71F0-58E2-4532-981B-D69ACAB3A8C8}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33500,7 +36079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A3F96-7C13-42E4-ACE4-D3E562544BD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07899D22-0904-411E-A0BC-F43029F2DF11}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33870,7 +36449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2962BEB2-A6FF-4B2A-AA26-D427949533B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ECD3A9-618D-4771-A476-600E62344502}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34240,7 +36819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494CDF7F-8D4A-491C-8B62-B6E2D7D6D248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522230F2-280D-41D1-A8B7-5837C3ACFC1F}">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34610,7 +37189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B7A944-C58A-4A65-8E17-9879F6FBC034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C675434F-9883-4274-AB79-CBAE11815E59}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34759,7 +37338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1BCAA9-26C6-4391-98EB-E6154CC4896D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E8C33-2274-4610-9CDA-5DAF3CC5D70F}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35052,7 +37631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40829DD3-58F7-4A05-927B-145C1AF9B9B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D61E7-18C1-433C-A2EF-CD6EDE1EE0AC}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35405,7 +37984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4417CE-55C1-41D5-9321-870AEC01755D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD084202-4908-4138-8DA3-9F9935B9A101}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35758,7 +38337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128858ED-E3B1-457F-B1FF-E8C9613F82C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9698E482-925F-45B7-92FD-70954A9B0A90}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36111,7 +38690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619AA07C-CBAB-40F5-BF0E-33E0BD138EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414D5D26-87C0-449D-AEB9-C4919D450AF2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36464,7 +39043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF368C6-6B57-4773-83E4-4F18281FDEC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176939B7-216E-43F4-BE49-D26193012F00}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36759,7 +39338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E80044-4457-4D21-90D2-F7C0726FB31B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5188272-1CAF-48F8-833B-8EC9510A4AD7}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37117,7 +39696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A0EBF3-87A1-4958-90CC-A3F40D292C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A240D-422A-4A3D-A828-AD765011D2DA}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37470,7 +40049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B93D8-1CD2-4E0B-9622-EDC30613E84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0729738D-98D9-447C-B474-3D005DA280DD}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37831,7 +40410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4612E03-1B4D-479D-8DA1-EB3CD074B1C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA852BB-1132-4F3E-AD7A-BC9B14013130}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38186,7 +40765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A25613-EFF3-486C-A532-308A403CFAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AD3262-B112-4571-A405-F4F34F35472D}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0"/>
@@ -38329,7 +40908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF1A08B-468D-4CA6-BB6B-2995BD6ADAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2799BCE-BA94-4E19-81DA-310FAE187575}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38622,7 +41201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1FE148-B70B-4F82-8A5E-8AC300CFE085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083FAEA8-57CA-4096-B459-BA1D83830D8A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38915,7 +41494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C5234-CDE0-4FB2-98CB-351CF7928252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB49935F-15C5-4FDD-B235-FF1B47393D80}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39268,7 +41847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59715C61-5225-4290-B00C-8B3B7B1F95DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6D3C66-5F77-48CA-96A8-62D5DF9CA1CA}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39621,7 +42200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567377D4-BBE6-4BFB-BB87-62C37FC77C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6350C584-9458-4016-9AE5-715BFE964283}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39974,7 +42553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8CFDCF-3A05-4B43-B5EA-AE15A805281C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B1506-085A-4B8E-A2BF-CA358D885EBB}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40327,7 +42906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B111C3-C296-4308-AEAC-873FC46C6599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BB5490-50BB-42D8-8A6D-9A6F91CEC0E5}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40626,7 +43205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460E054-D60D-43AC-AB4E-E11427C34DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED06AEB-91C6-4FA1-A739-5E6054A0F66D}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40990,7 +43569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA74F2C-B509-43DA-9991-8A72F02D8C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C5B4AD-8EAE-4EAA-A738-BF4905372266}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41353,7 +43932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CA507D-E5CC-4DB8-8844-80E8F76A25F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F02B3E-7D22-4EAD-8229-C3151A7D55DA}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41715,7 +44294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74E9566-9BFF-48A2-90E7-4BA895F00028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D23A510-F490-442B-A4CD-BC5B633AAEFD}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41858,7 +44437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB30ACDF-A095-49FA-AC2E-5553CDB93FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32F4E7-CB87-47DB-A76D-48D16228E2F2}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42220,7 +44799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCAEDE2-101A-43D5-AD75-32C1518FB210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C611F87-12E8-45A4-91AB-4757039DF2B5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42232,7 +44811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2809501A-4B09-461C-B086-100EE997FFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342A934-0877-4CC3-857B-BF96D5E6A069}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42532,7 +45111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710ECE1B-2163-42A2-9FF4-FC40A02E2AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A827870-0B5A-4C74-9EEC-36F1B23AED80}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42896,7 +45475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391F2E1B-A6D5-4D9E-ABF3-B2BA76A5284D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E88312-AEFA-4925-AD26-08E7BF713612}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -43260,7 +45839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41747EF-BAA6-4D7C-A7FC-A813874143FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA30E567-F8FD-4B3D-B1CB-C3BA1F096D79}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43623,7 +46202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C803358-2512-40A8-AB02-8432CCE32C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43DD7EA-042D-40CC-9AAE-2D7A37B78A2F}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43986,7 +46565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C09A2C-9C36-4B23-BAB5-27F31A8CFE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3834832-E6F6-4317-BDAD-E90C34233F02}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44279,7 +46858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226A8C2B-4E81-46EB-A056-EB8898DEABA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81A26A3-CEBE-409D-825D-EE132BBA5C1A}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44632,7 +47211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1A845-A79D-4686-A7C3-4183DFF23673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAA3DE4-ACEC-4817-B705-AA3BDF14A27F}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44987,7 +47566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F339BD-250E-4785-AFFE-BE851E896077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B66E4-F70F-4030-90FF-8EB19C6D9917}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45141,7 +47720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472BA67E-9130-49F8-A3BA-1847E3B94F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287E5AC8-7CA9-403C-8876-F2BDF4D241FA}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -45494,7 +48073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C72C7C-5683-4F51-8252-4CA808C04329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB50478-C5C5-4E83-BCF5-A89F19C285BF}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0"/>
@@ -45847,7 +48426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCC9D28-6F94-45A2-9F0E-84538987377D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666F7C0-F6CC-41E6-A40B-2C3577F74A72}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46140,7 +48719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D78740D-3729-42E4-A3DE-69A580054E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5387E0-06BF-43A8-A08C-DC2FC1837E8F}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46433,7 +49012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456FD1B0-9F8F-4C86-9C11-E9A08879E337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F891F0DF-84DE-46CE-BC8F-6BDF0B6656D5}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46786,7 +49365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0484BA-9CFC-46BA-8B6C-F55F8232A6C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F883E63-BB1A-4664-8F88-BA187B6E7EC6}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47139,7 +49718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AAD790-C294-4074-93F8-F90A9B896B17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58CA7C-9AC4-4AC6-B70A-53D7F5F0FFEC}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47492,7 +50071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477693D6-683F-438F-A597-BB306B177D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48F051B-3609-40E8-8E73-EE6B52518238}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47845,7 +50424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86FE80E-B7E2-4D66-BF42-EBA9B2CB757F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF63CE-CE42-4925-83E6-1D6629919B53}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48200,7 +50779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F63BD0-F97D-4E27-98E5-6D9B8151E8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347496B7-A561-4682-9FA0-456982AF392A}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
